--- a/문서/DB/STAY_테이블정의서.xlsx
+++ b/문서/DB/STAY_테이블정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansu7\OneDrive\바탕 화면\대학교\쌍용교육센터\4. 프로젝트\3. 파이널 프로젝트\1. 기능 및 테이블 설계\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569968D1-B450-4E16-AADA-D6E3F06D2096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE69541C-8FF0-49FE-B5A9-9A07DAF40484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{540EC85E-E7E6-488D-BCE9-66EAB191C5FF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="215">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -880,6 +880,14 @@
   </si>
   <si>
     <t>회원들이 해당 사용자를 추천한 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1655,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32421AEE-0BEA-44D9-BB47-DC8293EAA7D3}">
-  <dimension ref="B2:J132"/>
+  <dimension ref="B2:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4237,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>46</v>
@@ -4250,208 +4258,206 @@
         <v>39</v>
       </c>
       <c r="H114" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E115" s="20"/>
+      <c r="F115" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H115" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I114" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J114" s="12" t="s">
+      <c r="I115" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J115" s="23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="2:10">
-      <c r="B115" s="7" t="s">
+    <row r="116" spans="2:10">
+      <c r="B116" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C116" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D116" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E115" s="9">
+      <c r="E116" s="20">
         <v>20</v>
       </c>
-      <c r="F115" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G115" s="11" t="s">
+      <c r="F116" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G116" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H115" s="11" t="s">
+      <c r="H116" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I115" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J115" s="12" t="s">
+      <c r="I116" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J116" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="2:10">
-      <c r="B117" s="3" t="s">
+    <row r="118" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B118" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C117" s="4" t="str">
+      <c r="C118" s="4" t="str">
         <f>테이블목록!D16</f>
         <v>PAY_CARD</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E117" s="30" t="str">
+      <c r="E118" s="30" t="str">
         <f>테이블목록!C16</f>
         <v>결제카드</v>
       </c>
-      <c r="F117" s="31"/>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="31"/>
-      <c r="J117" s="32"/>
-    </row>
-    <row r="118" spans="2:10">
-      <c r="B118" s="3" t="s">
+      <c r="F118" s="31"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="31"/>
+      <c r="J118" s="32"/>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C118" s="33" t="s">
+      <c r="C119" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="34"/>
-      <c r="G118" s="34"/>
-      <c r="H118" s="34"/>
-      <c r="I118" s="34"/>
-      <c r="J118" s="35"/>
-    </row>
-    <row r="119" spans="2:10">
-      <c r="B119" s="6" t="s">
+      <c r="D119" s="34"/>
+      <c r="E119" s="34"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="34"/>
+      <c r="H119" s="34"/>
+      <c r="I119" s="34"/>
+      <c r="J119" s="35"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D120" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E120" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="F120" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G119" s="5" t="s">
+      <c r="G120" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H119" s="5" t="s">
+      <c r="H120" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I119" s="5" t="s">
+      <c r="I120" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J119" s="5" t="s">
+      <c r="J120" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="2:10">
-      <c r="B120" s="7" t="s">
+    <row r="121" spans="2:10">
+      <c r="B121" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C121" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D121" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E120" s="9">
+      <c r="E121" s="9">
         <v>20</v>
       </c>
-      <c r="F120" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G120" s="11" t="s">
+      <c r="F121" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G121" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H120" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I120" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J120" s="12" t="s">
+      <c r="H121" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J121" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="2:10">
-      <c r="B121" s="24" t="s">
+    <row r="122" spans="2:10">
+      <c r="B122" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C121" s="24" t="s">
+      <c r="C122" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D121" s="25" t="s">
+      <c r="D122" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E121" s="26">
+      <c r="E122" s="26">
         <v>20</v>
       </c>
-      <c r="F121" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G121" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H121" s="28" t="s">
+      <c r="F122" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G122" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H122" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I121" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J121" s="29" t="s">
+      <c r="I122" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J122" s="29" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10">
-      <c r="B122" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E122" s="15">
-        <v>50</v>
-      </c>
-      <c r="F122" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G122" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H122" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I122" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J122" s="14" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="123" spans="2:10">
       <c r="B123" s="13" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E123" s="15">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F123" s="16" t="s">
         <v>38</v>
@@ -4466,20 +4472,22 @@
         <v>40</v>
       </c>
       <c r="J123" s="14" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="124" spans="2:10">
       <c r="B124" s="13" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="E124" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="E124" s="15">
+        <v>20</v>
+      </c>
       <c r="F124" s="16" t="s">
         <v>38</v>
       </c>
@@ -4493,15 +4501,15 @@
         <v>40</v>
       </c>
       <c r="J124" s="14" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>197</v>
+        <v>183</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="D125" s="18" t="s">
         <v>201</v>
@@ -4511,184 +4519,209 @@
         <v>38</v>
       </c>
       <c r="G125" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H125" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I125" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J125" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E126" s="15"/>
+      <c r="F126" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G126" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="H125" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I125" s="17" t="s">
+      <c r="H126" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I126" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J125" s="14" t="s">
+      <c r="J126" s="14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="127" spans="2:10">
-      <c r="B127" s="3" t="s">
+    <row r="128" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B128" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C127" s="4" t="str">
+      <c r="C128" s="4" t="str">
         <f>테이블목록!D17</f>
         <v>RECEIVE_ACCOUNT</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E127" s="30" t="str">
+      <c r="E128" s="30" t="str">
         <f>테이블목록!C17</f>
         <v>수령계좌</v>
       </c>
-      <c r="F127" s="31"/>
-      <c r="G127" s="31"/>
-      <c r="H127" s="31"/>
-      <c r="I127" s="31"/>
-      <c r="J127" s="32"/>
-    </row>
-    <row r="128" spans="2:10">
-      <c r="B128" s="3" t="s">
+      <c r="F128" s="31"/>
+      <c r="G128" s="31"/>
+      <c r="H128" s="31"/>
+      <c r="I128" s="31"/>
+      <c r="J128" s="32"/>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C128" s="33" t="s">
+      <c r="C129" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="D128" s="34"/>
-      <c r="E128" s="34"/>
-      <c r="F128" s="34"/>
-      <c r="G128" s="34"/>
-      <c r="H128" s="34"/>
-      <c r="I128" s="34"/>
-      <c r="J128" s="35"/>
-    </row>
-    <row r="129" spans="2:10">
-      <c r="B129" s="6" t="s">
+      <c r="D129" s="34"/>
+      <c r="E129" s="34"/>
+      <c r="F129" s="34"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="34"/>
+      <c r="I129" s="34"/>
+      <c r="J129" s="35"/>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="E130" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="F130" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G129" s="5" t="s">
+      <c r="G130" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H129" s="5" t="s">
+      <c r="H130" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I129" s="5" t="s">
+      <c r="I130" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J129" s="5" t="s">
+      <c r="J130" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="2:10">
-      <c r="B130" s="7" t="s">
+    <row r="131" spans="2:10">
+      <c r="B131" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C131" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D131" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E130" s="9">
+      <c r="E131" s="9">
         <v>50</v>
       </c>
-      <c r="F130" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G130" s="11" t="s">
+      <c r="F131" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G131" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H130" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I130" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J130" s="12" t="s">
+      <c r="H131" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I131" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J131" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="131" spans="2:10">
-      <c r="B131" s="24" t="s">
+    <row r="132" spans="2:10">
+      <c r="B132" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C131" s="24" t="s">
+      <c r="C132" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D131" s="25" t="s">
+      <c r="D132" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E131" s="26">
+      <c r="E132" s="26">
         <v>20</v>
       </c>
-      <c r="F131" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G131" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H131" s="28" t="s">
+      <c r="F132" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G132" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H132" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I131" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J131" s="29" t="s">
+      <c r="I132" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J132" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="132" spans="2:10">
-      <c r="B132" s="13" t="s">
+    <row r="133" spans="2:10">
+      <c r="B133" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C132" s="19" t="s">
+      <c r="C133" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D132" s="18" t="s">
+      <c r="D133" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E132" s="15">
+      <c r="E133" s="15">
         <v>20</v>
       </c>
-      <c r="F132" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G132" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H132" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I132" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J132" s="14" t="s">
+      <c r="F133" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G133" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H133" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I133" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J133" s="14" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E127:J127"/>
-    <mergeCell ref="C128:J128"/>
-    <mergeCell ref="C104:J104"/>
-    <mergeCell ref="E111:J111"/>
-    <mergeCell ref="C112:J112"/>
-    <mergeCell ref="E117:J117"/>
-    <mergeCell ref="C118:J118"/>
-    <mergeCell ref="E88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="E94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="E103:J103"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="C48:J48"/>
     <mergeCell ref="C83:J83"/>
     <mergeCell ref="E82:J82"/>
     <mergeCell ref="E68:J68"/>
@@ -4697,23 +4730,25 @@
     <mergeCell ref="C55:J55"/>
     <mergeCell ref="E74:J74"/>
     <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="E94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="E103:J103"/>
+    <mergeCell ref="E128:J128"/>
+    <mergeCell ref="C129:J129"/>
+    <mergeCell ref="C104:J104"/>
+    <mergeCell ref="E111:J111"/>
+    <mergeCell ref="C112:J112"/>
+    <mergeCell ref="E118:J118"/>
+    <mergeCell ref="C119:J119"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G130:I132 G120:I125 G26:I38 G43:I45 G50:I52 G57:I66 G77:I80 G85:I86 G71:I72 G91:I92 G97:I101 G106:I109 G114:I115 G18:I21 G5:I13" xr:uid="{492BF38E-5496-4EF6-A922-FD81B9D26907}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G131:I133 G121:I126 G26:I38 G43:I45 G50:I52 G57:I66 G77:I80 G85:I86 G71:I72 G91:I92 G97:I101 G106:I109 G18:I21 G5:I13 G114:I116" xr:uid="{492BF38E-5496-4EF6-A922-FD81B9D26907}">
       <formula1>"O,X"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F130:F132 F120:F125 F26:F38 F43:F45 F50:F52 F57:F66 F77:F80 F85:F86 F71:F72 F91:F92 F97:F101 F106:F109 F114:F115 F18:F21 F5:F13" xr:uid="{AF8CC3C4-DFCA-412C-AEBD-8E350D2D1EDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F131:F133 F121:F126 F26:F38 F43:F45 F50:F52 F57:F66 F77:F80 F85:F86 F71:F72 F91:F92 F97:F101 F106:F109 F18:F21 F5:F13 F114:F116" xr:uid="{AF8CC3C4-DFCA-412C-AEBD-8E350D2D1EDE}">
       <formula1>"NULL, NOT NULL"</formula1>
     </dataValidation>
   </dataValidations>

--- a/문서/DB/STAY_테이블정의서.xlsx
+++ b/문서/DB/STAY_테이블정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansu7\OneDrive\바탕 화면\대학교\쌍용교육센터\4. 프로젝트\3. 파이널 프로젝트\1. 기능 및 테이블 설계\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE69541C-8FF0-49FE-B5A9-9A07DAF40484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0880F65-7F37-41FC-9439-92121BC03D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{540EC85E-E7E6-488D-BCE9-66EAB191C5FF}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{540EC85E-E7E6-488D-BCE9-66EAB191C5FF}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블목록" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="214">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -884,10 +884,6 @@
   </si>
   <si>
     <t>ROOM_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1663,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32421AEE-0BEA-44D9-BB47-DC8293EAA7D3}">
-  <dimension ref="B2:J133"/>
+  <dimension ref="B2:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112:J112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4242,10 +4238,10 @@
     </row>
     <row r="114" spans="2:10">
       <c r="B114" s="7" t="s">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>46</v>
@@ -4258,206 +4254,208 @@
         <v>39</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="I114" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J114" s="7" t="s">
-        <v>214</v>
+      <c r="J114" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="2:10">
-      <c r="B115" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D115" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E115" s="20"/>
-      <c r="F115" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G115" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H115" s="22" t="s">
+      <c r="B115" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E115" s="9">
+        <v>20</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G115" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I115" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J115" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10">
-      <c r="B116" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D116" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E116" s="20">
-        <v>20</v>
-      </c>
-      <c r="F116" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G116" s="22" t="s">
+      <c r="H115" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H116" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I116" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J116" s="23" t="s">
+      <c r="I115" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J115" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="118" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B118" s="3" t="s">
+    <row r="117" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B117" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C118" s="4" t="str">
+      <c r="C117" s="4" t="str">
         <f>테이블목록!D16</f>
         <v>PAY_CARD</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E118" s="30" t="str">
+      <c r="E117" s="30" t="str">
         <f>테이블목록!C16</f>
         <v>결제카드</v>
       </c>
-      <c r="F118" s="31"/>
-      <c r="G118" s="31"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="31"/>
-      <c r="J118" s="32"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="31"/>
+      <c r="J117" s="32"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D118" s="34"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="34"/>
+      <c r="I118" s="34"/>
+      <c r="J118" s="35"/>
     </row>
     <row r="119" spans="2:10">
-      <c r="B119" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C119" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="D119" s="34"/>
-      <c r="E119" s="34"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="34"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="34"/>
-      <c r="J119" s="35"/>
+      <c r="B119" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="120" spans="2:10">
-      <c r="B120" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J120" s="5" t="s">
-        <v>35</v>
+      <c r="B120" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" s="9">
+        <v>20</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J120" s="12" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="121" spans="2:10">
-      <c r="B121" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D121" s="8" t="s">
+      <c r="B121" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D121" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E121" s="9">
+      <c r="E121" s="26">
         <v>20</v>
       </c>
-      <c r="F121" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G121" s="11" t="s">
+      <c r="F121" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G121" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H121" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="H121" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I121" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J121" s="12" t="s">
-        <v>198</v>
+      <c r="I121" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J121" s="29" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="2:10">
-      <c r="B122" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C122" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D122" s="25" t="s">
+      <c r="B122" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D122" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E122" s="26">
-        <v>20</v>
-      </c>
-      <c r="F122" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G122" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H122" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I122" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J122" s="29" t="s">
-        <v>129</v>
+      <c r="E122" s="15">
+        <v>50</v>
+      </c>
+      <c r="F122" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G122" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H122" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I122" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J122" s="14" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="123" spans="2:10">
       <c r="B123" s="13" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E123" s="15">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F123" s="16" t="s">
         <v>38</v>
@@ -4472,22 +4470,20 @@
         <v>40</v>
       </c>
       <c r="J123" s="14" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="124" spans="2:10">
       <c r="B124" s="13" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E124" s="15">
-        <v>20</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E124" s="15"/>
       <c r="F124" s="16" t="s">
         <v>38</v>
       </c>
@@ -4501,15 +4497,15 @@
         <v>40</v>
       </c>
       <c r="J124" s="14" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>196</v>
+        <v>51</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="D125" s="18" t="s">
         <v>201</v>
@@ -4519,209 +4515,184 @@
         <v>38</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="H125" s="17" t="s">
         <v>40</v>
       </c>
       <c r="I125" s="17" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="J125" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="126" spans="2:10">
-      <c r="B126" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D126" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="E126" s="15"/>
-      <c r="F126" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G126" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H126" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I126" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="J126" s="14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B128" s="3" t="s">
+    <row r="127" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B127" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C128" s="4" t="str">
+      <c r="C127" s="4" t="str">
         <f>테이블목록!D17</f>
         <v>RECEIVE_ACCOUNT</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D127" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E128" s="30" t="str">
+      <c r="E127" s="30" t="str">
         <f>테이블목록!C17</f>
         <v>수령계좌</v>
       </c>
-      <c r="F128" s="31"/>
-      <c r="G128" s="31"/>
-      <c r="H128" s="31"/>
-      <c r="I128" s="31"/>
-      <c r="J128" s="32"/>
+      <c r="F127" s="31"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="31"/>
+      <c r="I127" s="31"/>
+      <c r="J127" s="32"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C128" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D128" s="34"/>
+      <c r="E128" s="34"/>
+      <c r="F128" s="34"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="34"/>
+      <c r="I128" s="34"/>
+      <c r="J128" s="35"/>
     </row>
     <row r="129" spans="2:10">
-      <c r="B129" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C129" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="D129" s="34"/>
-      <c r="E129" s="34"/>
-      <c r="F129" s="34"/>
-      <c r="G129" s="34"/>
-      <c r="H129" s="34"/>
-      <c r="I129" s="34"/>
-      <c r="J129" s="35"/>
+      <c r="B129" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="130" spans="2:10">
-      <c r="B130" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I130" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J130" s="5" t="s">
-        <v>35</v>
+      <c r="B130" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E130" s="9">
+        <v>50</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I130" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J130" s="12" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="2:10">
-      <c r="B131" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D131" s="8" t="s">
+      <c r="B131" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D131" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E131" s="9">
-        <v>50</v>
-      </c>
-      <c r="F131" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G131" s="11" t="s">
+      <c r="E131" s="26">
+        <v>20</v>
+      </c>
+      <c r="F131" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G131" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H131" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="H131" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I131" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J131" s="12" t="s">
-        <v>187</v>
+      <c r="I131" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J131" s="29" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="132" spans="2:10">
-      <c r="B132" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C132" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D132" s="25" t="s">
+      <c r="B132" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D132" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E132" s="26">
+      <c r="E132" s="15">
         <v>20</v>
       </c>
-      <c r="F132" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G132" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H132" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I132" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J132" s="29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10">
-      <c r="B133" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C133" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E133" s="15">
-        <v>20</v>
-      </c>
-      <c r="F133" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G133" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H133" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I133" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J133" s="14" t="s">
+      <c r="F132" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G132" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H132" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I132" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J132" s="14" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="E127:J127"/>
+    <mergeCell ref="C128:J128"/>
+    <mergeCell ref="C104:J104"/>
+    <mergeCell ref="E111:J111"/>
+    <mergeCell ref="C112:J112"/>
+    <mergeCell ref="E117:J117"/>
+    <mergeCell ref="C118:J118"/>
+    <mergeCell ref="E88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="E94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="E103:J103"/>
     <mergeCell ref="C83:J83"/>
     <mergeCell ref="E82:J82"/>
     <mergeCell ref="E68:J68"/>
@@ -4730,25 +4701,23 @@
     <mergeCell ref="C55:J55"/>
     <mergeCell ref="E74:J74"/>
     <mergeCell ref="C75:J75"/>
-    <mergeCell ref="E88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="E94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="E103:J103"/>
-    <mergeCell ref="E128:J128"/>
-    <mergeCell ref="C129:J129"/>
-    <mergeCell ref="C104:J104"/>
-    <mergeCell ref="E111:J111"/>
-    <mergeCell ref="C112:J112"/>
-    <mergeCell ref="E118:J118"/>
-    <mergeCell ref="C119:J119"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="E23:J23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G131:I133 G121:I126 G26:I38 G43:I45 G50:I52 G57:I66 G77:I80 G85:I86 G71:I72 G91:I92 G97:I101 G106:I109 G18:I21 G5:I13 G114:I116" xr:uid="{492BF38E-5496-4EF6-A922-FD81B9D26907}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G130:I132 G120:I125 G26:I38 G43:I45 G50:I52 G57:I66 G77:I80 G85:I86 G71:I72 G91:I92 G97:I101 G106:I109 G18:I21 G5:I13 G114:I115" xr:uid="{492BF38E-5496-4EF6-A922-FD81B9D26907}">
       <formula1>"O,X"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F131:F133 F121:F126 F26:F38 F43:F45 F50:F52 F57:F66 F77:F80 F85:F86 F71:F72 F91:F92 F97:F101 F106:F109 F18:F21 F5:F13 F114:F116" xr:uid="{AF8CC3C4-DFCA-412C-AEBD-8E350D2D1EDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F130:F132 F120:F125 F26:F38 F43:F45 F50:F52 F57:F66 F77:F80 F85:F86 F71:F72 F91:F92 F97:F101 F106:F109 F18:F21 F5:F13 F114:F115" xr:uid="{AF8CC3C4-DFCA-412C-AEBD-8E350D2D1EDE}">
       <formula1>"NULL, NOT NULL"</formula1>
     </dataValidation>
   </dataValidations>

--- a/문서/DB/STAY_테이블정의서.xlsx
+++ b/문서/DB/STAY_테이블정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansu7\OneDrive\바탕 화면\대학교\쌍용교육센터\4. 프로젝트\3. 파이널 프로젝트\1. 기능 및 테이블 설계\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0880F65-7F37-41FC-9439-92121BC03D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1351CD-0211-48D0-9F4B-CAB7984D4663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{540EC85E-E7E6-488D-BCE9-66EAB191C5FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{540EC85E-E7E6-488D-BCE9-66EAB191C5FF}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블목록" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="214">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1659,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32421AEE-0BEA-44D9-BB47-DC8293EAA7D3}">
-  <dimension ref="B2:J132"/>
+  <dimension ref="B2:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112:J112"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2982,9 +2982,11 @@
         <v>126</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E57" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E57" s="9">
+        <v>20</v>
+      </c>
       <c r="F57" s="10" t="s">
         <v>38</v>
       </c>
@@ -3061,13 +3063,13 @@
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="13" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="16" t="s">
@@ -3077,21 +3079,21 @@
         <v>40</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="I60" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>117</v>
@@ -3110,18 +3112,18 @@
         <v>40</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="2:10">
       <c r="B62" s="13" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="E62" s="15"/>
       <c r="F62" s="16" t="s">
@@ -3137,22 +3139,20 @@
         <v>40</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" s="13" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="15">
-        <v>30</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E63" s="15"/>
       <c r="F63" s="16" t="s">
         <v>38</v>
       </c>
@@ -3166,50 +3166,50 @@
         <v>40</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E64" s="15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="13" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E65" s="15">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F65" s="16" t="s">
         <v>142</v>
@@ -3224,134 +3224,136 @@
         <v>143</v>
       </c>
       <c r="J65" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="15">
+        <v>50</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I66" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J66" s="14" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="2:10">
-      <c r="B66" s="19" t="s">
+    <row r="67" spans="2:10">
+      <c r="B67" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C67" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D67" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H66" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I66" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J66" s="23" t="s">
+      <c r="E67" s="20"/>
+      <c r="F67" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I67" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J67" s="23" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="2:10">
-      <c r="B68" s="3" t="s">
+    <row r="69" spans="2:10">
+      <c r="B69" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="4" t="str">
+      <c r="C69" s="4" t="str">
         <f>테이블목록!D9</f>
         <v>RECEIPT</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E68" s="30" t="str">
+      <c r="E69" s="30" t="str">
         <f>테이블목록!C9</f>
         <v>예약영수증</v>
       </c>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="32"/>
-    </row>
-    <row r="69" spans="2:10">
-      <c r="B69" s="3" t="s">
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C70" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="35"/>
-    </row>
-    <row r="70" spans="2:10">
-      <c r="B70" s="6" t="s">
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="35"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F71" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G71" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H71" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I71" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J70" s="5" t="s">
+      <c r="J71" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10">
-      <c r="B71" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J71" s="12" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="7" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>46</v>
@@ -3364,288 +3366,292 @@
         <v>39</v>
       </c>
       <c r="H72" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="9">
+        <v>20</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H73" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I72" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J72" s="12" t="s">
+      <c r="I73" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J73" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="2:10">
-      <c r="B74" s="3" t="s">
+    <row r="75" spans="2:10">
+      <c r="B75" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C74" s="4" t="str">
+      <c r="C75" s="4" t="str">
         <f>테이블목록!D10</f>
         <v>CAN_RESERVATION</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E74" s="30" t="str">
+      <c r="E75" s="30" t="str">
         <f>테이블목록!C10</f>
         <v>예약취소</v>
       </c>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
-    </row>
-    <row r="75" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B75" s="3" t="s">
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="32"/>
+    </row>
+    <row r="76" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B76" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C75" s="33" t="s">
+      <c r="C76" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="35"/>
-    </row>
-    <row r="76" spans="2:10">
-      <c r="B76" s="6" t="s">
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="35"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F77" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G77" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H77" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I76" s="5" t="s">
+      <c r="I77" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J76" s="5" t="s">
+      <c r="J77" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="2:10">
-      <c r="B77" s="7" t="s">
+    <row r="78" spans="2:10">
+      <c r="B78" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G77" s="11" t="s">
+      <c r="D78" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" s="9">
+        <v>20</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G78" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H77" s="11" t="s">
+      <c r="H78" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I77" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J77" s="12" t="s">
+      <c r="I78" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J78" s="12" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10">
-      <c r="B78" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E78" s="15"/>
-      <c r="F78" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H78" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I78" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J78" s="14" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="16" t="s">
         <v>38</v>
       </c>
       <c r="G79" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H79" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I79" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J79" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" s="15"/>
+      <c r="F80" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G80" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="H79" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I79" s="17" t="s">
+      <c r="H80" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I80" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="J79" s="14" t="s">
+      <c r="J80" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="2:10">
-      <c r="B80" s="19" t="s">
+    <row r="81" spans="2:10">
+      <c r="B81" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C81" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D81" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E80" s="20">
+      <c r="E81" s="20">
         <v>20</v>
       </c>
-      <c r="F80" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H80" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I80" s="17" t="s">
+      <c r="F81" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I81" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J80" s="23" t="s">
+      <c r="J81" s="23" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="2:10">
-      <c r="B82" s="3" t="s">
+    <row r="83" spans="2:10">
+      <c r="B83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C82" s="4" t="str">
+      <c r="C83" s="4" t="str">
         <f>테이블목록!D11</f>
         <v>CAN_RECEIPT</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="30" t="str">
+      <c r="E83" s="30" t="str">
         <f>테이블목록!C11</f>
         <v>예약취소영수증</v>
       </c>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="32"/>
-    </row>
-    <row r="83" spans="2:10">
-      <c r="B83" s="3" t="s">
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="33" t="s">
+      <c r="C84" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="35"/>
-    </row>
-    <row r="84" spans="2:10">
-      <c r="B84" s="6" t="s">
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="35"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E85" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F85" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G85" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H85" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I84" s="5" t="s">
+      <c r="I85" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J84" s="5" t="s">
+      <c r="J85" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10">
-      <c r="B85" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J85" s="12" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="86" spans="2:10">
       <c r="B86" s="7" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>46</v>
@@ -3658,125 +3664,125 @@
         <v>39</v>
       </c>
       <c r="H86" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J86" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="9">
+        <v>20</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H87" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I86" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J86" s="12" t="s">
+      <c r="I87" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J87" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="88" spans="2:10">
-      <c r="B88" s="3" t="s">
+    <row r="89" spans="2:10">
+      <c r="B89" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C88" s="4" t="str">
+      <c r="C89" s="4" t="str">
         <f>테이블목록!D12</f>
         <v>JOIN_GUEST</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E88" s="30" t="str">
+      <c r="E89" s="30" t="str">
         <f>테이블목록!C12</f>
         <v>공동게스트</v>
       </c>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
-    </row>
-    <row r="89" spans="2:10">
-      <c r="B89" s="3" t="s">
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="32"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="33" t="s">
+      <c r="C90" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
-    </row>
-    <row r="90" spans="2:10">
-      <c r="B90" s="6" t="s">
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="35"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E91" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F91" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G91" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="H91" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I90" s="5" t="s">
+      <c r="I91" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J90" s="5" t="s">
+      <c r="J91" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10">
-      <c r="B91" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J91" s="12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="92" spans="2:10">
       <c r="B92" s="7" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E92" s="9">
-        <v>20</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E92" s="9"/>
       <c r="F92" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H92" s="11" t="s">
         <v>72</v>
@@ -3785,107 +3791,109 @@
         <v>40</v>
       </c>
       <c r="J92" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" s="9">
+        <v>20</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J93" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="2:10">
-      <c r="B94" s="3" t="s">
+    <row r="95" spans="2:10">
+      <c r="B95" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C94" s="4" t="str">
+      <c r="C95" s="4" t="str">
         <f>테이블목록!D13</f>
         <v>GUEST_COMMENT</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E94" s="30" t="str">
+      <c r="E95" s="30" t="str">
         <f>테이블목록!C13</f>
         <v>게스트댓글</v>
       </c>
-      <c r="F94" s="31"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="31"/>
-      <c r="J94" s="32"/>
-    </row>
-    <row r="95" spans="2:10">
-      <c r="B95" s="3" t="s">
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="32"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C95" s="33" t="s">
+      <c r="C96" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="35"/>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="B96" s="6" t="s">
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="35"/>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E97" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F97" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G97" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="H97" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I96" s="5" t="s">
+      <c r="I97" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J96" s="5" t="s">
+      <c r="J97" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10">
-      <c r="B97" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E97" s="9"/>
-      <c r="F97" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J97" s="12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" s="7" t="s">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>37</v>
@@ -3897,7 +3905,7 @@
         <v>38</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H98" s="11" t="s">
         <v>72</v>
@@ -3906,49 +3914,51 @@
         <v>40</v>
       </c>
       <c r="J98" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="9">
+        <v>20</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J99" s="12" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10">
-      <c r="B99" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D99" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E99" s="15">
-        <v>500</v>
-      </c>
-      <c r="F99" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G99" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H99" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I99" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J99" s="14" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="100" spans="2:10">
       <c r="B100" s="13" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="E100" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="E100" s="15">
+        <v>500</v>
+      </c>
       <c r="F100" s="16" t="s">
         <v>38</v>
       </c>
@@ -3962,134 +3972,134 @@
         <v>40</v>
       </c>
       <c r="J100" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="E101" s="15"/>
       <c r="F101" s="16" t="s">
         <v>38</v>
       </c>
       <c r="G101" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I101" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J101" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102" s="15"/>
+      <c r="F102" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G102" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="H101" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I101" s="17" t="s">
+      <c r="H102" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I102" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J101" s="14" t="s">
+      <c r="J102" s="14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="103" spans="2:10">
-      <c r="B103" s="3" t="s">
+    <row r="104" spans="2:10">
+      <c r="B104" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C103" s="4" t="str">
+      <c r="C104" s="4" t="str">
         <f>테이블목록!D14</f>
         <v>HOST_COMMENT</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E103" s="30" t="str">
+      <c r="E104" s="30" t="str">
         <f>테이블목록!C14</f>
         <v>호스트답글</v>
       </c>
-      <c r="F103" s="31"/>
-      <c r="G103" s="31"/>
-      <c r="H103" s="31"/>
-      <c r="I103" s="31"/>
-      <c r="J103" s="32"/>
-    </row>
-    <row r="104" spans="2:10">
-      <c r="B104" s="3" t="s">
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="31"/>
+      <c r="J104" s="32"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C104" s="33" t="s">
+      <c r="C105" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="D104" s="34"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="34"/>
-      <c r="G104" s="34"/>
-      <c r="H104" s="34"/>
-      <c r="I104" s="34"/>
-      <c r="J104" s="35"/>
-    </row>
-    <row r="105" spans="2:10">
-      <c r="B105" s="6" t="s">
+      <c r="D105" s="34"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="34"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="34"/>
+      <c r="I105" s="34"/>
+      <c r="J105" s="35"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E106" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F106" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G105" s="5" t="s">
+      <c r="G106" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="H106" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I105" s="5" t="s">
+      <c r="I106" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J105" s="5" t="s">
+      <c r="J106" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10">
-      <c r="B106" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E106" s="9"/>
-      <c r="F106" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H106" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I106" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J106" s="12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="107" spans="2:10">
       <c r="B107" s="7" t="s">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>37</v>
@@ -4101,7 +4111,7 @@
         <v>38</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H107" s="11" t="s">
         <v>72</v>
@@ -4110,15 +4120,15 @@
         <v>40</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="2:10">
       <c r="B108" s="7" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>37</v>
@@ -4139,148 +4149,148 @@
         <v>40</v>
       </c>
       <c r="J108" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E109" s="9">
+        <v>20</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J109" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="2:10">
-      <c r="B109" s="13" t="s">
+    <row r="110" spans="2:10">
+      <c r="B110" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="C110" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D109" s="18" t="s">
+      <c r="D110" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E109" s="15">
+      <c r="E110" s="15">
         <v>500</v>
       </c>
-      <c r="F109" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G109" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H109" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I109" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J109" s="14" t="s">
+      <c r="F110" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H110" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I110" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J110" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="111" spans="2:10">
-      <c r="B111" s="3" t="s">
+    <row r="112" spans="2:10">
+      <c r="B112" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C111" s="4" t="str">
+      <c r="C112" s="4" t="str">
         <f>테이블목록!D15</f>
         <v>WISHLIST</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E111" s="30" t="str">
+      <c r="E112" s="30" t="str">
         <f>테이블목록!C15</f>
         <v>위시리스트</v>
       </c>
-      <c r="F111" s="31"/>
-      <c r="G111" s="31"/>
-      <c r="H111" s="31"/>
-      <c r="I111" s="31"/>
-      <c r="J111" s="32"/>
-    </row>
-    <row r="112" spans="2:10">
-      <c r="B112" s="3" t="s">
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="32"/>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C112" s="33" t="s">
+      <c r="C113" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="34"/>
-      <c r="G112" s="34"/>
-      <c r="H112" s="34"/>
-      <c r="I112" s="34"/>
-      <c r="J112" s="35"/>
-    </row>
-    <row r="113" spans="2:10">
-      <c r="B113" s="6" t="s">
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="35"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E114" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="F114" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G113" s="5" t="s">
+      <c r="G114" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H113" s="5" t="s">
+      <c r="H114" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I113" s="5" t="s">
+      <c r="I114" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J113" s="5" t="s">
+      <c r="J114" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="114" spans="2:10">
-      <c r="B114" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G114" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H114" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I114" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J114" s="12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="115" spans="2:10">
       <c r="B115" s="7" t="s">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E115" s="9">
-        <v>20</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E115" s="9"/>
       <c r="F115" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H115" s="11" t="s">
         <v>72</v>
@@ -4289,173 +4299,173 @@
         <v>40</v>
       </c>
       <c r="J115" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E116" s="9">
+        <v>20</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I116" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J116" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B117" s="3" t="s">
+    <row r="118" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B118" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C117" s="4" t="str">
+      <c r="C118" s="4" t="str">
         <f>테이블목록!D16</f>
         <v>PAY_CARD</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E117" s="30" t="str">
+      <c r="E118" s="30" t="str">
         <f>테이블목록!C16</f>
         <v>결제카드</v>
       </c>
-      <c r="F117" s="31"/>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="31"/>
-      <c r="J117" s="32"/>
-    </row>
-    <row r="118" spans="2:10">
-      <c r="B118" s="3" t="s">
+      <c r="F118" s="31"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="31"/>
+      <c r="J118" s="32"/>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C118" s="33" t="s">
+      <c r="C119" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="34"/>
-      <c r="G118" s="34"/>
-      <c r="H118" s="34"/>
-      <c r="I118" s="34"/>
-      <c r="J118" s="35"/>
-    </row>
-    <row r="119" spans="2:10">
-      <c r="B119" s="6" t="s">
+      <c r="D119" s="34"/>
+      <c r="E119" s="34"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="34"/>
+      <c r="H119" s="34"/>
+      <c r="I119" s="34"/>
+      <c r="J119" s="35"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D120" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E120" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="F120" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G119" s="5" t="s">
+      <c r="G120" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H119" s="5" t="s">
+      <c r="H120" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I119" s="5" t="s">
+      <c r="I120" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J119" s="5" t="s">
+      <c r="J120" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="2:10">
-      <c r="B120" s="7" t="s">
+    <row r="121" spans="2:10">
+      <c r="B121" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C121" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D121" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E120" s="9">
+      <c r="E121" s="9">
         <v>20</v>
       </c>
-      <c r="F120" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G120" s="11" t="s">
+      <c r="F121" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G121" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H120" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I120" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J120" s="12" t="s">
+      <c r="H121" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J121" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="2:10">
-      <c r="B121" s="24" t="s">
+    <row r="122" spans="2:10">
+      <c r="B122" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C121" s="24" t="s">
+      <c r="C122" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D121" s="25" t="s">
+      <c r="D122" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E121" s="26">
+      <c r="E122" s="26">
         <v>20</v>
       </c>
-      <c r="F121" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G121" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H121" s="28" t="s">
+      <c r="F122" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G122" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H122" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I121" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J121" s="29" t="s">
+      <c r="I122" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J122" s="29" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10">
-      <c r="B122" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E122" s="15">
-        <v>50</v>
-      </c>
-      <c r="F122" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G122" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H122" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I122" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J122" s="14" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="123" spans="2:10">
       <c r="B123" s="13" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E123" s="15">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F123" s="16" t="s">
         <v>38</v>
@@ -4470,20 +4480,22 @@
         <v>40</v>
       </c>
       <c r="J123" s="14" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="124" spans="2:10">
       <c r="B124" s="13" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="E124" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="E124" s="15">
+        <v>20</v>
+      </c>
       <c r="F124" s="16" t="s">
         <v>38</v>
       </c>
@@ -4497,15 +4509,15 @@
         <v>40</v>
       </c>
       <c r="J124" s="14" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>197</v>
+        <v>183</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="D125" s="18" t="s">
         <v>201</v>
@@ -4515,209 +4527,236 @@
         <v>38</v>
       </c>
       <c r="G125" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H125" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I125" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J125" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E126" s="15"/>
+      <c r="F126" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G126" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="H125" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I125" s="17" t="s">
+      <c r="H126" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I126" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J125" s="14" t="s">
+      <c r="J126" s="14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="127" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B127" s="3" t="s">
+    <row r="128" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B128" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C127" s="4" t="str">
+      <c r="C128" s="4" t="str">
         <f>테이블목록!D17</f>
         <v>RECEIVE_ACCOUNT</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E127" s="30" t="str">
+      <c r="E128" s="30" t="str">
         <f>테이블목록!C17</f>
         <v>수령계좌</v>
       </c>
-      <c r="F127" s="31"/>
-      <c r="G127" s="31"/>
-      <c r="H127" s="31"/>
-      <c r="I127" s="31"/>
-      <c r="J127" s="32"/>
-    </row>
-    <row r="128" spans="2:10">
-      <c r="B128" s="3" t="s">
+      <c r="F128" s="31"/>
+      <c r="G128" s="31"/>
+      <c r="H128" s="31"/>
+      <c r="I128" s="31"/>
+      <c r="J128" s="32"/>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C128" s="33" t="s">
+      <c r="C129" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="D128" s="34"/>
-      <c r="E128" s="34"/>
-      <c r="F128" s="34"/>
-      <c r="G128" s="34"/>
-      <c r="H128" s="34"/>
-      <c r="I128" s="34"/>
-      <c r="J128" s="35"/>
-    </row>
-    <row r="129" spans="2:10">
-      <c r="B129" s="6" t="s">
+      <c r="D129" s="34"/>
+      <c r="E129" s="34"/>
+      <c r="F129" s="34"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="34"/>
+      <c r="I129" s="34"/>
+      <c r="J129" s="35"/>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="E130" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="F130" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G129" s="5" t="s">
+      <c r="G130" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H129" s="5" t="s">
+      <c r="H130" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I129" s="5" t="s">
+      <c r="I130" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J129" s="5" t="s">
+      <c r="J130" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="2:10">
-      <c r="B130" s="7" t="s">
+    <row r="131" spans="2:10">
+      <c r="B131" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C131" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D131" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E130" s="9">
+      <c r="E131" s="9">
         <v>50</v>
       </c>
-      <c r="F130" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G130" s="11" t="s">
+      <c r="F131" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G131" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H130" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I130" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J130" s="12" t="s">
+      <c r="H131" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I131" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J131" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="131" spans="2:10">
-      <c r="B131" s="24" t="s">
+    <row r="132" spans="2:10">
+      <c r="B132" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C131" s="24" t="s">
+      <c r="C132" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D131" s="25" t="s">
+      <c r="D132" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E131" s="26">
+      <c r="E132" s="26">
         <v>20</v>
       </c>
-      <c r="F131" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G131" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H131" s="28" t="s">
+      <c r="F132" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G132" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H132" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I131" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J131" s="29" t="s">
+      <c r="I132" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J132" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="132" spans="2:10">
-      <c r="B132" s="13" t="s">
+    <row r="133" spans="2:10">
+      <c r="B133" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C132" s="19" t="s">
+      <c r="C133" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D132" s="18" t="s">
+      <c r="D133" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E132" s="15">
+      <c r="E133" s="15">
         <v>20</v>
       </c>
-      <c r="F132" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G132" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H132" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I132" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J132" s="14" t="s">
+      <c r="F133" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G133" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H133" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I133" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J133" s="14" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E127:J127"/>
-    <mergeCell ref="C128:J128"/>
-    <mergeCell ref="C104:J104"/>
-    <mergeCell ref="E111:J111"/>
-    <mergeCell ref="C112:J112"/>
-    <mergeCell ref="E117:J117"/>
-    <mergeCell ref="C118:J118"/>
-    <mergeCell ref="E88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="E94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="E103:J103"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="E82:J82"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="E23:J23"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="E40:J40"/>
     <mergeCell ref="C41:J41"/>
     <mergeCell ref="E47:J47"/>
     <mergeCell ref="C48:J48"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="E83:J83"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="E89:J89"/>
+    <mergeCell ref="C90:J90"/>
+    <mergeCell ref="E95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="E104:J104"/>
+    <mergeCell ref="E128:J128"/>
+    <mergeCell ref="C129:J129"/>
+    <mergeCell ref="C105:J105"/>
+    <mergeCell ref="E112:J112"/>
+    <mergeCell ref="C113:J113"/>
+    <mergeCell ref="E118:J118"/>
+    <mergeCell ref="C119:J119"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G130:I132 G120:I125 G26:I38 G43:I45 G50:I52 G57:I66 G77:I80 G85:I86 G71:I72 G91:I92 G97:I101 G106:I109 G18:I21 G5:I13 G114:I115" xr:uid="{492BF38E-5496-4EF6-A922-FD81B9D26907}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G131:I133 G121:I126 G26:I38 G43:I45 G50:I52 G115:I116 G78:I81 G86:I87 G72:I73 G92:I93 G98:I102 G107:I110 G18:I21 G5:I13 G57:I67" xr:uid="{492BF38E-5496-4EF6-A922-FD81B9D26907}">
       <formula1>"O,X"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F130:F132 F120:F125 F26:F38 F43:F45 F50:F52 F57:F66 F77:F80 F85:F86 F71:F72 F91:F92 F97:F101 F106:F109 F18:F21 F5:F13 F114:F115" xr:uid="{AF8CC3C4-DFCA-412C-AEBD-8E350D2D1EDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F131:F133 F121:F126 F26:F38 F43:F45 F50:F52 F115:F116 F78:F81 F86:F87 F72:F73 F92:F93 F98:F102 F107:F110 F18:F21 F5:F13 F57:F67" xr:uid="{AF8CC3C4-DFCA-412C-AEBD-8E350D2D1EDE}">
       <formula1>"NULL, NOT NULL"</formula1>
     </dataValidation>
   </dataValidations>

--- a/문서/DB/STAY_테이블정의서.xlsx
+++ b/문서/DB/STAY_테이블정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansu7\OneDrive\바탕 화면\대학교\쌍용교육센터\4. 프로젝트\3. 파이널 프로젝트\1. 기능 및 테이블 설계\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1351CD-0211-48D0-9F4B-CAB7984D4663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7265B69-3051-4156-8853-9DADED8A5D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{540EC85E-E7E6-488D-BCE9-66EAB191C5FF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="217">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -884,6 +884,18 @@
   </si>
   <si>
     <t>ROOM_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WRITE_DAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게스트 댓글 작성한 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1659,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32421AEE-0BEA-44D9-BB47-DC8293EAA7D3}">
-  <dimension ref="B2:J133"/>
+  <dimension ref="B2:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4029,106 +4041,104 @@
         <v>175</v>
       </c>
     </row>
-    <row r="104" spans="2:10">
-      <c r="B104" s="3" t="s">
+    <row r="103" spans="2:10">
+      <c r="B103" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E103" s="15"/>
+      <c r="F103" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H103" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I103" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J103" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C104" s="4" t="str">
+      <c r="C105" s="4" t="str">
         <f>테이블목록!D14</f>
         <v>HOST_COMMENT</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E104" s="30" t="str">
+      <c r="E105" s="30" t="str">
         <f>테이블목록!C14</f>
         <v>호스트답글</v>
       </c>
-      <c r="F104" s="31"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="31"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="32"/>
-    </row>
-    <row r="105" spans="2:10">
-      <c r="B105" s="3" t="s">
+      <c r="F105" s="31"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="31"/>
+      <c r="I105" s="31"/>
+      <c r="J105" s="32"/>
+    </row>
+    <row r="106" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B106" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C105" s="33" t="s">
+      <c r="C106" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="34"/>
-      <c r="I105" s="34"/>
-      <c r="J105" s="35"/>
-    </row>
-    <row r="106" spans="2:10">
-      <c r="B106" s="6" t="s">
+      <c r="D106" s="34"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="35"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E107" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="F107" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G106" s="5" t="s">
+      <c r="G107" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H106" s="5" t="s">
+      <c r="H107" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I106" s="5" t="s">
+      <c r="I107" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J106" s="5" t="s">
+      <c r="J107" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10">
-      <c r="B107" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E107" s="9">
-        <v>20</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H107" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I107" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J107" s="12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="108" spans="2:10">
       <c r="B108" s="7" t="s">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>37</v>
@@ -4140,7 +4150,7 @@
         <v>38</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H108" s="11" t="s">
         <v>72</v>
@@ -4149,15 +4159,15 @@
         <v>40</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="7" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>37</v>
@@ -4178,148 +4188,148 @@
         <v>40</v>
       </c>
       <c r="J109" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E110" s="9">
+        <v>20</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I110" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J110" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="2:10">
-      <c r="B110" s="13" t="s">
+    <row r="111" spans="2:10">
+      <c r="B111" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C110" s="19" t="s">
+      <c r="C111" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D110" s="18" t="s">
+      <c r="D111" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E110" s="15">
+      <c r="E111" s="15">
         <v>500</v>
       </c>
-      <c r="F110" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G110" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H110" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I110" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J110" s="14" t="s">
+      <c r="F111" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H111" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I111" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J111" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="2:10">
-      <c r="B112" s="3" t="s">
+    <row r="113" spans="2:10">
+      <c r="B113" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C112" s="4" t="str">
+      <c r="C113" s="4" t="str">
         <f>테이블목록!D15</f>
         <v>WISHLIST</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D113" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E112" s="30" t="str">
+      <c r="E113" s="30" t="str">
         <f>테이블목록!C15</f>
         <v>위시리스트</v>
       </c>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="32"/>
-    </row>
-    <row r="113" spans="2:10">
-      <c r="B113" s="3" t="s">
+      <c r="F113" s="31"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
+      <c r="J113" s="32"/>
+    </row>
+    <row r="114" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B114" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C113" s="33" t="s">
+      <c r="C114" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="34"/>
-      <c r="H113" s="34"/>
-      <c r="I113" s="34"/>
-      <c r="J113" s="35"/>
-    </row>
-    <row r="114" spans="2:10">
-      <c r="B114" s="6" t="s">
+      <c r="D114" s="34"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="34"/>
+      <c r="I114" s="34"/>
+      <c r="J114" s="35"/>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C115" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E115" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F114" s="5" t="s">
+      <c r="F115" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G114" s="5" t="s">
+      <c r="G115" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H114" s="5" t="s">
+      <c r="H115" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I114" s="5" t="s">
+      <c r="I115" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J114" s="5" t="s">
+      <c r="J115" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10">
-      <c r="B115" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H115" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I115" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J115" s="12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="116" spans="2:10">
       <c r="B116" s="7" t="s">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E116" s="9">
-        <v>20</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E116" s="9"/>
       <c r="F116" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H116" s="11" t="s">
         <v>72</v>
@@ -4328,173 +4338,173 @@
         <v>40</v>
       </c>
       <c r="J116" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117" s="9">
+        <v>20</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I117" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J117" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="118" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B118" s="3" t="s">
+    <row r="119" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B119" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C118" s="4" t="str">
+      <c r="C119" s="4" t="str">
         <f>테이블목록!D16</f>
         <v>PAY_CARD</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D119" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E118" s="30" t="str">
+      <c r="E119" s="30" t="str">
         <f>테이블목록!C16</f>
         <v>결제카드</v>
       </c>
-      <c r="F118" s="31"/>
-      <c r="G118" s="31"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="31"/>
-      <c r="J118" s="32"/>
-    </row>
-    <row r="119" spans="2:10">
-      <c r="B119" s="3" t="s">
+      <c r="F119" s="31"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
+      <c r="J119" s="32"/>
+    </row>
+    <row r="120" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B120" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C119" s="33" t="s">
+      <c r="C120" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="D119" s="34"/>
-      <c r="E119" s="34"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="34"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="34"/>
-      <c r="J119" s="35"/>
-    </row>
-    <row r="120" spans="2:10">
-      <c r="B120" s="6" t="s">
+      <c r="D120" s="34"/>
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="34"/>
+      <c r="I120" s="34"/>
+      <c r="J120" s="35"/>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D121" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E121" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="F121" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G120" s="5" t="s">
+      <c r="G121" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H120" s="5" t="s">
+      <c r="H121" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I120" s="5" t="s">
+      <c r="I121" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J120" s="5" t="s">
+      <c r="J121" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="2:10">
-      <c r="B121" s="7" t="s">
+    <row r="122" spans="2:10">
+      <c r="B122" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C122" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D122" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E121" s="9">
+      <c r="E122" s="9">
         <v>20</v>
       </c>
-      <c r="F121" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G121" s="11" t="s">
+      <c r="F122" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G122" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H121" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I121" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J121" s="12" t="s">
+      <c r="H122" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I122" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J122" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="122" spans="2:10">
-      <c r="B122" s="24" t="s">
+    <row r="123" spans="2:10">
+      <c r="B123" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C122" s="24" t="s">
+      <c r="C123" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="25" t="s">
+      <c r="D123" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E122" s="26">
+      <c r="E123" s="26">
         <v>20</v>
       </c>
-      <c r="F122" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G122" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H122" s="28" t="s">
+      <c r="F123" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G123" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H123" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I122" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J122" s="29" t="s">
+      <c r="I123" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J123" s="29" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10">
-      <c r="B123" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D123" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E123" s="15">
-        <v>50</v>
-      </c>
-      <c r="F123" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G123" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H123" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I123" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J123" s="14" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="124" spans="2:10">
       <c r="B124" s="13" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D124" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E124" s="15">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F124" s="16" t="s">
         <v>38</v>
@@ -4509,20 +4519,22 @@
         <v>40</v>
       </c>
       <c r="J124" s="14" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="13" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="E125" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="E125" s="15">
+        <v>20</v>
+      </c>
       <c r="F125" s="16" t="s">
         <v>38</v>
       </c>
@@ -4536,15 +4548,15 @@
         <v>40</v>
       </c>
       <c r="J125" s="14" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" spans="2:10">
       <c r="B126" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>197</v>
+        <v>183</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="D126" s="18" t="s">
         <v>201</v>
@@ -4554,182 +4566,211 @@
         <v>38</v>
       </c>
       <c r="G126" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H126" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I126" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J126" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E127" s="15"/>
+      <c r="F127" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G127" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="H126" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I126" s="17" t="s">
+      <c r="H127" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I127" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J126" s="14" t="s">
+      <c r="J127" s="14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B128" s="3" t="s">
+    <row r="129" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B129" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C128" s="4" t="str">
+      <c r="C129" s="4" t="str">
         <f>테이블목록!D17</f>
         <v>RECEIVE_ACCOUNT</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D129" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E128" s="30" t="str">
+      <c r="E129" s="30" t="str">
         <f>테이블목록!C17</f>
         <v>수령계좌</v>
       </c>
-      <c r="F128" s="31"/>
-      <c r="G128" s="31"/>
-      <c r="H128" s="31"/>
-      <c r="I128" s="31"/>
-      <c r="J128" s="32"/>
-    </row>
-    <row r="129" spans="2:10">
-      <c r="B129" s="3" t="s">
+      <c r="F129" s="31"/>
+      <c r="G129" s="31"/>
+      <c r="H129" s="31"/>
+      <c r="I129" s="31"/>
+      <c r="J129" s="32"/>
+    </row>
+    <row r="130" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B130" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C129" s="33" t="s">
+      <c r="C130" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="D129" s="34"/>
-      <c r="E129" s="34"/>
-      <c r="F129" s="34"/>
-      <c r="G129" s="34"/>
-      <c r="H129" s="34"/>
-      <c r="I129" s="34"/>
-      <c r="J129" s="35"/>
-    </row>
-    <row r="130" spans="2:10">
-      <c r="B130" s="6" t="s">
+      <c r="D130" s="34"/>
+      <c r="E130" s="34"/>
+      <c r="F130" s="34"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="34"/>
+      <c r="I130" s="34"/>
+      <c r="J130" s="35"/>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D131" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E130" s="5" t="s">
+      <c r="E131" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F130" s="5" t="s">
+      <c r="F131" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G130" s="5" t="s">
+      <c r="G131" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H130" s="5" t="s">
+      <c r="H131" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I130" s="5" t="s">
+      <c r="I131" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J130" s="5" t="s">
+      <c r="J131" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="2:10">
-      <c r="B131" s="7" t="s">
+    <row r="132" spans="2:10">
+      <c r="B132" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C132" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D132" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E131" s="9">
+      <c r="E132" s="9">
         <v>50</v>
       </c>
-      <c r="F131" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G131" s="11" t="s">
+      <c r="F132" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G132" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H131" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I131" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J131" s="12" t="s">
+      <c r="H132" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I132" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J132" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="132" spans="2:10">
-      <c r="B132" s="24" t="s">
+    <row r="133" spans="2:10">
+      <c r="B133" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C132" s="24" t="s">
+      <c r="C133" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D132" s="25" t="s">
+      <c r="D133" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E132" s="26">
+      <c r="E133" s="26">
         <v>20</v>
       </c>
-      <c r="F132" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G132" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H132" s="28" t="s">
+      <c r="F133" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G133" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H133" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I132" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J132" s="29" t="s">
+      <c r="I133" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J133" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="133" spans="2:10">
-      <c r="B133" s="13" t="s">
+    <row r="134" spans="2:10">
+      <c r="B134" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C133" s="19" t="s">
+      <c r="C134" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D133" s="18" t="s">
+      <c r="D134" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E133" s="15">
+      <c r="E134" s="15">
         <v>20</v>
       </c>
-      <c r="F133" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G133" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H133" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I133" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J133" s="14" t="s">
+      <c r="F134" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G134" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H134" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I134" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J134" s="14" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="E105:J105"/>
+    <mergeCell ref="E129:J129"/>
+    <mergeCell ref="C130:J130"/>
+    <mergeCell ref="C106:J106"/>
+    <mergeCell ref="E113:J113"/>
+    <mergeCell ref="C114:J114"/>
+    <mergeCell ref="E119:J119"/>
+    <mergeCell ref="C120:J120"/>
+    <mergeCell ref="E89:J89"/>
+    <mergeCell ref="C90:J90"/>
+    <mergeCell ref="E95:J95"/>
+    <mergeCell ref="C96:J96"/>
     <mergeCell ref="C84:J84"/>
     <mergeCell ref="E83:J83"/>
     <mergeCell ref="E69:J69"/>
@@ -4738,25 +4779,23 @@
     <mergeCell ref="C55:J55"/>
     <mergeCell ref="E75:J75"/>
     <mergeCell ref="C76:J76"/>
-    <mergeCell ref="E89:J89"/>
-    <mergeCell ref="C90:J90"/>
-    <mergeCell ref="E95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="E104:J104"/>
-    <mergeCell ref="E128:J128"/>
-    <mergeCell ref="C129:J129"/>
-    <mergeCell ref="C105:J105"/>
-    <mergeCell ref="E112:J112"/>
-    <mergeCell ref="C113:J113"/>
-    <mergeCell ref="E118:J118"/>
-    <mergeCell ref="C119:J119"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="E23:J23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G131:I133 G121:I126 G26:I38 G43:I45 G50:I52 G115:I116 G78:I81 G86:I87 G72:I73 G92:I93 G98:I102 G107:I110 G18:I21 G5:I13 G57:I67" xr:uid="{492BF38E-5496-4EF6-A922-FD81B9D26907}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G132:I134 G122:I127 G26:I38 G43:I45 G50:I52 G116:I117 G78:I81 G86:I87 G72:I73 G92:I93 G108:I111 G18:I21 G5:I13 G57:I67 G98:I103" xr:uid="{492BF38E-5496-4EF6-A922-FD81B9D26907}">
       <formula1>"O,X"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F131:F133 F121:F126 F26:F38 F43:F45 F50:F52 F115:F116 F78:F81 F86:F87 F72:F73 F92:F93 F98:F102 F107:F110 F18:F21 F5:F13 F57:F67" xr:uid="{AF8CC3C4-DFCA-412C-AEBD-8E350D2D1EDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F132:F134 F122:F127 F26:F38 F43:F45 F50:F52 F116:F117 F78:F81 F86:F87 F72:F73 F92:F93 F108:F111 F18:F21 F5:F13 F57:F67 F98:F103" xr:uid="{AF8CC3C4-DFCA-412C-AEBD-8E350D2D1EDE}">
       <formula1>"NULL, NOT NULL"</formula1>
     </dataValidation>
   </dataValidations>

--- a/문서/DB/STAY_테이블정의서.xlsx
+++ b/문서/DB/STAY_테이블정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansu7\OneDrive\바탕 화면\대학교\쌍용교육센터\4. 프로젝트\3. 파이널 프로젝트\1. 기능 및 테이블 설계\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7265B69-3051-4156-8853-9DADED8A5D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B4C58C-9BF3-4BA7-8BF5-4A0EC9286855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{540EC85E-E7E6-488D-BCE9-66EAB191C5FF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="221">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -896,6 +896,22 @@
   </si>
   <si>
     <t>게스트 댓글 작성한 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게스트댓글좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT_LIKE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요를 클릭한 사용자의 아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1472,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DA79B9-0DB7-401B-A53B-C0311E3B421F}">
-  <dimension ref="B2:D17"/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1662,6 +1678,17 @@
         <v>193</v>
       </c>
     </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" t="s">
+        <v>218</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1671,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32421AEE-0BEA-44D9-BB47-DC8293EAA7D3}">
-  <dimension ref="B2:J134"/>
+  <dimension ref="B2:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J104" sqref="J104"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4757,8 +4784,184 @@
         <v>186</v>
       </c>
     </row>
+    <row r="136" spans="2:10">
+      <c r="B136" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" s="4" t="str">
+        <f>테이블목록!D18</f>
+        <v>COMMENT_LIKE</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E136" s="30" t="str">
+        <f>테이블목록!C18</f>
+        <v>게스트댓글좋아요</v>
+      </c>
+      <c r="F136" s="31"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="31"/>
+      <c r="I136" s="31"/>
+      <c r="J136" s="32"/>
+    </row>
+    <row r="137" spans="2:10">
+      <c r="B137" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C137" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D137" s="34"/>
+      <c r="E137" s="34"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="34"/>
+      <c r="I137" s="34"/>
+      <c r="J137" s="35"/>
+    </row>
+    <row r="138" spans="2:10">
+      <c r="B138" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J138" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10">
+      <c r="B139" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E139" s="9">
+        <v>20</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I139" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J139" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10">
+      <c r="B140" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E140" s="9">
+        <v>20</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I140" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J140" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10">
+      <c r="B141" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E141" s="9">
+        <v>20</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I141" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J141" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="32">
+    <mergeCell ref="E136:J136"/>
+    <mergeCell ref="C137:J137"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="E83:J83"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="E89:J89"/>
+    <mergeCell ref="C90:J90"/>
+    <mergeCell ref="E95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C84:J84"/>
     <mergeCell ref="E105:J105"/>
     <mergeCell ref="E129:J129"/>
     <mergeCell ref="C130:J130"/>
@@ -4767,35 +4970,13 @@
     <mergeCell ref="C114:J114"/>
     <mergeCell ref="E119:J119"/>
     <mergeCell ref="C120:J120"/>
-    <mergeCell ref="E89:J89"/>
-    <mergeCell ref="C90:J90"/>
-    <mergeCell ref="E95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="E83:J83"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="E23:J23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G132:I134 G122:I127 G26:I38 G43:I45 G50:I52 G116:I117 G78:I81 G86:I87 G72:I73 G92:I93 G108:I111 G18:I21 G5:I13 G57:I67 G98:I103" xr:uid="{492BF38E-5496-4EF6-A922-FD81B9D26907}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G132:I134 G122:I127 G26:I38 G43:I45 G50:I52 G116:I117 G78:I81 G86:I87 G72:I73 G92:I93 G108:I111 G18:I21 G5:I13 G57:I67 G98:I103 G139:I141" xr:uid="{492BF38E-5496-4EF6-A922-FD81B9D26907}">
       <formula1>"O,X"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F132:F134 F122:F127 F26:F38 F43:F45 F50:F52 F116:F117 F78:F81 F86:F87 F72:F73 F92:F93 F108:F111 F18:F21 F5:F13 F57:F67 F98:F103" xr:uid="{AF8CC3C4-DFCA-412C-AEBD-8E350D2D1EDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F132:F134 F122:F127 F26:F38 F43:F45 F50:F52 F116:F117 F78:F81 F86:F87 F72:F73 F92:F93 F108:F111 F18:F21 F5:F13 F57:F67 F98:F103 F139:F141" xr:uid="{AF8CC3C4-DFCA-412C-AEBD-8E350D2D1EDE}">
       <formula1>"NULL, NOT NULL"</formula1>
     </dataValidation>
   </dataValidations>

--- a/문서/DB/STAY_테이블정의서.xlsx
+++ b/문서/DB/STAY_테이블정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansu7\OneDrive\바탕 화면\대학교\쌍용교육센터\4. 프로젝트\3. 파이널 프로젝트\1. 기능 및 테이블 설계\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B4C58C-9BF3-4BA7-8BF5-4A0EC9286855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208759D2-553C-4C19-878A-E8ABF02E5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{540EC85E-E7E6-488D-BCE9-66EAB191C5FF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="251">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -912,6 +912,126 @@
   </si>
   <si>
     <t>좋아요를 클릭한 사용자의 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFUND_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불을 승인한 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_LIKE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPORT_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPROVE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 승인한 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고한 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SENDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보낸사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보낸 사람의 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECEIVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받은사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받은 사람의 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메세지내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메세지 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 입력 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메세지날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게스트가 작성한 댓글의 좋아요 정보를 저장하는 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원의 좋아요 정보를 저장하는 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅내용을 저장하는 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1488,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DA79B9-0DB7-401B-A53B-C0311E3B421F}">
-  <dimension ref="B2:D18"/>
+  <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1683,10 +1803,32 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
         <v>217</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1698,17 +1840,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32421AEE-0BEA-44D9-BB47-DC8293EAA7D3}">
-  <dimension ref="B2:J141"/>
+  <dimension ref="B2:J159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153:J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="1.59765625" customWidth="1"/>
     <col min="2" max="3" width="19.09765625" customWidth="1"/>
-    <col min="4" max="4" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="35.5" customWidth="1"/>
@@ -2198,7 +2340,7 @@
         <v>37</v>
       </c>
       <c r="E21" s="15">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>38</v>
@@ -2216,198 +2358,194 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="22" spans="2:10">
+      <c r="B22" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="25" spans="2:10">
+      <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="4" t="str">
+      <c r="C25" s="4" t="str">
         <f>테이블목록!D5</f>
         <v>ROOM</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="30" t="str">
+      <c r="E25" s="30" t="str">
         <f>테이블목록!C5</f>
         <v>숙소</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="32"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="3" t="s">
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C26" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="6" t="s">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="7" t="s">
+    <row r="28" spans="2:10">
+      <c r="B28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="11" t="s">
+      <c r="E28" s="9"/>
+      <c r="F28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="12" t="s">
+      <c r="H28" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="13" t="s">
+    <row r="29" spans="2:10">
+      <c r="B29" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="15">
-        <v>20</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="20">
-        <v>50</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="20">
-        <v>100</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>82</v>
+      <c r="E29" s="15">
+        <v>20</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E30" s="20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>38</v>
@@ -2422,15 +2560,15 @@
         <v>40</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>37</v>
@@ -2451,21 +2589,21 @@
         <v>40</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E32" s="20">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>38</v>
@@ -2480,20 +2618,22 @@
         <v>40</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="20"/>
+        <v>37</v>
+      </c>
+      <c r="E33" s="20">
+        <v>100</v>
+      </c>
       <c r="F33" s="21" t="s">
         <v>38</v>
       </c>
@@ -2507,21 +2647,21 @@
         <v>40</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E34" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="F34" s="21" t="s">
         <v>38</v>
@@ -2536,22 +2676,20 @@
         <v>40</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="20">
-        <v>500</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E35" s="20"/>
       <c r="F35" s="21" t="s">
         <v>38</v>
       </c>
@@ -2565,24 +2703,24 @@
         <v>40</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E36" s="20">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="G36" s="22" t="s">
         <v>40</v>
@@ -2594,22 +2732,24 @@
         <v>40</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="19" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="20"/>
+        <v>37</v>
+      </c>
+      <c r="E37" s="20">
+        <v>500</v>
+      </c>
       <c r="F37" s="21" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="G37" s="22" t="s">
         <v>40</v>
@@ -2621,21 +2761,21 @@
         <v>40</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="19" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="E38" s="20">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F38" s="21" t="s">
         <v>100</v>
@@ -2647,497 +2787,499 @@
         <v>40</v>
       </c>
       <c r="I38" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="20">
+        <v>1</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="J38" s="23" t="s">
+      <c r="J40" s="23" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="20.100000000000001" customHeight="1"/>
-    <row r="40" spans="2:10">
-      <c r="B40" s="3" t="s">
+    <row r="41" spans="2:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="42" spans="2:10">
+      <c r="B42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="4" t="str">
+      <c r="C42" s="4" t="str">
         <f>테이블목록!D6</f>
         <v>ROOM_PRICE</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="30" t="str">
+      <c r="E42" s="30" t="str">
         <f>테이블목록!C6</f>
         <v>숙소변경가격</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="32"/>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="3" t="s">
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C43" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="35"/>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="6" t="s">
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="35"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H44" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I44" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J44" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="7" t="s">
+    <row r="45" spans="2:10">
+      <c r="B45" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D45" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="11" t="s">
+      <c r="E45" s="9"/>
+      <c r="F45" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H45" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I43" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J43" s="12" t="s">
+      <c r="I45" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J45" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="7" t="s">
+    <row r="46" spans="2:10">
+      <c r="B46" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D46" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="11" t="s">
+      <c r="E46" s="9"/>
+      <c r="F46" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H44" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J44" s="12" t="s">
+      <c r="H46" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="19" t="s">
+    <row r="47" spans="2:10">
+      <c r="B47" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C47" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D47" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J45" s="23" t="s">
+      <c r="E47" s="20"/>
+      <c r="F47" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J47" s="23" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="3" t="s">
+    <row r="49" spans="2:10">
+      <c r="B49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="4" t="str">
+      <c r="C49" s="4" t="str">
         <f>테이블목록!D7</f>
         <v>ROOM_HOSTING</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="30" t="str">
+      <c r="E49" s="30" t="str">
         <f>테이블목록!C7</f>
         <v>숙소변경호스팅</v>
       </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="3" t="s">
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="32"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C50" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="35"/>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="6" t="s">
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="35"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I51" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J51" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="7" t="s">
+    <row r="52" spans="2:10">
+      <c r="B52" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G50" s="11" t="s">
+      <c r="E52" s="9"/>
+      <c r="F52" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H52" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I50" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J50" s="12" t="s">
+      <c r="I52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="7" t="s">
+    <row r="53" spans="2:10">
+      <c r="B53" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D53" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G51" s="11" t="s">
+      <c r="E53" s="9"/>
+      <c r="F53" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J51" s="12" t="s">
+      <c r="H53" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J53" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="19" t="s">
+    <row r="54" spans="2:10">
+      <c r="B54" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C54" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D54" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E54" s="20">
         <v>1</v>
       </c>
-      <c r="F52" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H52" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52" s="23" t="s">
+      <c r="F54" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="3" t="s">
+    <row r="56" spans="2:10">
+      <c r="B56" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="4" t="str">
+      <c r="C56" s="4" t="str">
         <f>테이블목록!D8</f>
         <v>RESERVATION</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="30" t="str">
+      <c r="E56" s="30" t="str">
         <f>테이블목록!C8</f>
         <v>예약</v>
       </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="32"/>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="3" t="s">
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C57" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="35"/>
-    </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="6" t="s">
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="35"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F58" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G58" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H58" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I58" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="J58" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="7" t="s">
+    <row r="59" spans="2:10">
+      <c r="B59" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D59" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E59" s="9">
         <v>20</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G57" s="11" t="s">
+      <c r="F59" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H57" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J57" s="12" t="s">
+      <c r="H59" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="2:10">
-      <c r="B58" s="24" t="s">
+    <row r="60" spans="2:10">
+      <c r="B60" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C60" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D60" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E58" s="26">
+      <c r="E60" s="26">
         <v>20</v>
       </c>
-      <c r="F58" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G58" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H58" s="28" t="s">
+      <c r="F60" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I58" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J58" s="29" t="s">
+      <c r="I60" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J60" s="29" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59" s="15">
-        <v>20</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H59" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I59" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J59" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I60" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J60" s="14" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="13" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E61" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="E61" s="15">
+        <v>20</v>
+      </c>
       <c r="F61" s="16" t="s">
         <v>38</v>
       </c>
@@ -3145,24 +3287,24 @@
         <v>40</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="I61" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="2:10">
       <c r="B62" s="13" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="E62" s="15"/>
       <c r="F62" s="16" t="s">
@@ -3172,24 +3314,24 @@
         <v>40</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="I62" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" s="13" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="E63" s="15"/>
       <c r="F63" s="16" t="s">
@@ -3205,22 +3347,20 @@
         <v>40</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E64" s="15">
-        <v>30</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E64" s="15"/>
       <c r="F64" s="16" t="s">
         <v>38</v>
       </c>
@@ -3234,376 +3374,376 @@
         <v>40</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="13" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" s="15">
-        <v>20</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E65" s="15"/>
       <c r="F65" s="16" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="13" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>188</v>
+        <v>9</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E66" s="15">
+        <v>30</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I66" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="15">
+        <v>20</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I67" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="15">
         <v>50</v>
       </c>
-      <c r="F66" s="16" t="s">
+      <c r="F68" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="G66" s="17" t="s">
+      <c r="G68" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="H66" s="17" t="s">
+      <c r="H68" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I66" s="17" t="s">
+      <c r="I68" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="J66" s="14" t="s">
+      <c r="J68" s="14" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="2:10">
-      <c r="B67" s="19" t="s">
+    <row r="69" spans="2:10">
+      <c r="B69" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C69" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D69" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="E67" s="20"/>
-      <c r="F67" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G67" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H67" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I67" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J67" s="23" t="s">
+      <c r="E69" s="20"/>
+      <c r="F69" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I69" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J69" s="23" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="2:10">
-      <c r="B69" s="3" t="s">
+    <row r="71" spans="2:10">
+      <c r="B71" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="4" t="str">
+      <c r="C71" s="4" t="str">
         <f>테이블목록!D9</f>
         <v>RECEIPT</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E69" s="30" t="str">
+      <c r="E71" s="30" t="str">
         <f>테이블목록!C9</f>
         <v>예약영수증</v>
       </c>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
-    </row>
-    <row r="70" spans="2:10">
-      <c r="B70" s="3" t="s">
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="32"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C72" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="35"/>
-    </row>
-    <row r="71" spans="2:10">
-      <c r="B71" s="6" t="s">
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="35"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F73" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G73" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="H73" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I73" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J71" s="5" t="s">
+      <c r="J73" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="2:10">
-      <c r="B72" s="7" t="s">
+    <row r="74" spans="2:10">
+      <c r="B74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D74" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G72" s="11" t="s">
+      <c r="E74" s="9"/>
+      <c r="F74" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G74" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H72" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J72" s="12" t="s">
+      <c r="H74" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J74" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="7" t="s">
+    <row r="75" spans="2:10">
+      <c r="B75" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D75" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E75" s="9">
         <v>20</v>
       </c>
-      <c r="F73" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G73" s="11" t="s">
+      <c r="F75" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H73" s="11" t="s">
+      <c r="H75" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I73" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J73" s="12" t="s">
+      <c r="I75" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J75" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="2:10">
-      <c r="B75" s="3" t="s">
+    <row r="77" spans="2:10">
+      <c r="B77" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="4" t="str">
+      <c r="C77" s="4" t="str">
         <f>테이블목록!D10</f>
         <v>CAN_RESERVATION</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E75" s="30" t="str">
+      <c r="E77" s="30" t="str">
         <f>테이블목록!C10</f>
         <v>예약취소</v>
       </c>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="32"/>
-    </row>
-    <row r="76" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B76" s="3" t="s">
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="32"/>
+    </row>
+    <row r="78" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B78" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="33" t="s">
+      <c r="C78" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="35"/>
-    </row>
-    <row r="77" spans="2:10">
-      <c r="B77" s="6" t="s">
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="35"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E79" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F79" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G79" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H79" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I77" s="5" t="s">
+      <c r="I79" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J77" s="5" t="s">
+      <c r="J79" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="2:10">
-      <c r="B78" s="7" t="s">
+    <row r="80" spans="2:10">
+      <c r="B80" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D80" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E80" s="9">
         <v>20</v>
       </c>
-      <c r="F78" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G78" s="11" t="s">
+      <c r="F80" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G80" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H78" s="11" t="s">
+      <c r="H80" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I78" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J78" s="12" t="s">
+      <c r="I80" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J80" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="2:10">
-      <c r="B79" s="13" t="s">
+    <row r="81" spans="2:10">
+      <c r="B81" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C81" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D81" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="E79" s="15"/>
-      <c r="F79" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G79" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H79" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I79" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J79" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10">
-      <c r="B80" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E80" s="15"/>
-      <c r="F80" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H80" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I80" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="J80" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10">
-      <c r="B81" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E81" s="20">
-        <v>20</v>
-      </c>
+      <c r="E81" s="15"/>
       <c r="F81" s="16" t="s">
         <v>38</v>
       </c>
@@ -3616,1367 +3756,1783 @@
       <c r="I81" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J81" s="23" t="s">
+      <c r="J81" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="15"/>
+      <c r="F82" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I82" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J82" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" s="20">
+        <v>20</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I83" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J83" s="23" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="2:10">
-      <c r="B83" s="3" t="s">
+    <row r="84" spans="2:10">
+      <c r="B84" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E84" s="20"/>
+      <c r="F84" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I84" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J84" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="4" t="str">
+      <c r="C86" s="4" t="str">
         <f>테이블목록!D11</f>
         <v>CAN_RECEIPT</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E83" s="30" t="str">
+      <c r="E86" s="30" t="str">
         <f>테이블목록!C11</f>
         <v>예약취소영수증</v>
       </c>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
-    </row>
-    <row r="84" spans="2:10">
-      <c r="B84" s="3" t="s">
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="32"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C87" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="35"/>
-    </row>
-    <row r="85" spans="2:10">
-      <c r="B85" s="6" t="s">
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="35"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E88" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F88" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G88" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="H88" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I85" s="5" t="s">
+      <c r="I88" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J85" s="5" t="s">
+      <c r="J88" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="2:10">
-      <c r="B86" s="7" t="s">
+    <row r="89" spans="2:10">
+      <c r="B89" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D89" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G86" s="11" t="s">
+      <c r="E89" s="9"/>
+      <c r="F89" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G89" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H86" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J86" s="12" t="s">
+      <c r="H89" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J89" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="2:10">
-      <c r="B87" s="7" t="s">
+    <row r="90" spans="2:10">
+      <c r="B90" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D90" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E90" s="9">
         <v>20</v>
       </c>
-      <c r="F87" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G87" s="11" t="s">
+      <c r="F90" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G90" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H87" s="11" t="s">
+      <c r="H90" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I87" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J87" s="12" t="s">
+      <c r="I90" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J90" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="2:10">
-      <c r="B89" s="3" t="s">
+    <row r="92" spans="2:10">
+      <c r="B92" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C89" s="4" t="str">
+      <c r="C92" s="4" t="str">
         <f>테이블목록!D12</f>
         <v>JOIN_GUEST</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E89" s="30" t="str">
+      <c r="E92" s="30" t="str">
         <f>테이블목록!C12</f>
         <v>공동게스트</v>
       </c>
-      <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="32"/>
-    </row>
-    <row r="90" spans="2:10">
-      <c r="B90" s="3" t="s">
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C90" s="33" t="s">
+      <c r="C93" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="35"/>
-    </row>
-    <row r="91" spans="2:10">
-      <c r="B91" s="6" t="s">
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="35"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E94" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F94" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="G94" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H91" s="5" t="s">
+      <c r="H94" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I91" s="5" t="s">
+      <c r="I94" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J91" s="5" t="s">
+      <c r="J94" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="2:10">
-      <c r="B92" s="7" t="s">
+    <row r="95" spans="2:10">
+      <c r="B95" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C95" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D95" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G92" s="11" t="s">
+      <c r="E95" s="9"/>
+      <c r="F95" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G95" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H92" s="11" t="s">
+      <c r="H95" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I92" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J92" s="12" t="s">
+      <c r="I95" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J95" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="2:10">
-      <c r="B93" s="7" t="s">
+    <row r="96" spans="2:10">
+      <c r="B96" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C96" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D96" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E96" s="9">
         <v>20</v>
       </c>
-      <c r="F93" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G93" s="11" t="s">
+      <c r="F96" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G96" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H93" s="11" t="s">
+      <c r="H96" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I93" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J93" s="12" t="s">
+      <c r="I96" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J96" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="2:10">
-      <c r="B95" s="3" t="s">
+    <row r="98" spans="2:10">
+      <c r="B98" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C95" s="4" t="str">
+      <c r="C98" s="4" t="str">
         <f>테이블목록!D13</f>
         <v>GUEST_COMMENT</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E95" s="30" t="str">
+      <c r="E98" s="30" t="str">
         <f>테이블목록!C13</f>
         <v>게스트댓글</v>
       </c>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="32"/>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="B96" s="3" t="s">
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="31"/>
+      <c r="J98" s="32"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="33" t="s">
+      <c r="C99" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="35"/>
-    </row>
-    <row r="97" spans="2:10">
-      <c r="B97" s="6" t="s">
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="34"/>
+      <c r="I99" s="34"/>
+      <c r="J99" s="35"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E100" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F100" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G100" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H97" s="5" t="s">
+      <c r="H100" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I97" s="5" t="s">
+      <c r="I100" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J97" s="5" t="s">
+      <c r="J100" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="2:10">
-      <c r="B98" s="7" t="s">
+    <row r="101" spans="2:10">
+      <c r="B101" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C101" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D101" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E101" s="9">
         <v>20</v>
       </c>
-      <c r="F98" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G98" s="11" t="s">
+      <c r="F101" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G101" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H98" s="11" t="s">
+      <c r="H101" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I98" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J98" s="12" t="s">
+      <c r="I101" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J101" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="2:10">
-      <c r="B99" s="7" t="s">
+    <row r="102" spans="2:10">
+      <c r="B102" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C102" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D102" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E102" s="9">
         <v>20</v>
       </c>
-      <c r="F99" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G99" s="11" t="s">
+      <c r="F102" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G102" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H99" s="11" t="s">
+      <c r="H102" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I99" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J99" s="12" t="s">
+      <c r="I102" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J102" s="12" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10">
-      <c r="B100" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D100" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E100" s="15">
-        <v>500</v>
-      </c>
-      <c r="F100" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G100" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H100" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I100" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J100" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10">
-      <c r="B101" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D101" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="E101" s="15"/>
-      <c r="F101" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G101" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H101" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I101" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J101" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10">
-      <c r="B102" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D102" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E102" s="15"/>
-      <c r="F102" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G102" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H102" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I102" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="J102" s="14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="103" spans="2:10">
       <c r="B103" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E103" s="15">
+        <v>500</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H103" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I103" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J103" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E104" s="15"/>
+      <c r="F104" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I104" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J104" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E105" s="15"/>
+      <c r="F105" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G105" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H105" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I105" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J105" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C106" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="D106" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="E103" s="15"/>
-      <c r="F103" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G103" s="17" t="s">
+      <c r="E106" s="15"/>
+      <c r="F106" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G106" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="H103" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I103" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J103" s="14" t="s">
+      <c r="H106" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I106" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J106" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="105" spans="2:10">
-      <c r="B105" s="3" t="s">
+    <row r="108" spans="2:10">
+      <c r="B108" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="4" t="str">
+      <c r="C108" s="4" t="str">
         <f>테이블목록!D14</f>
         <v>HOST_COMMENT</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E105" s="30" t="str">
+      <c r="E108" s="30" t="str">
         <f>테이블목록!C14</f>
         <v>호스트답글</v>
       </c>
-      <c r="F105" s="31"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="31"/>
-      <c r="I105" s="31"/>
-      <c r="J105" s="32"/>
-    </row>
-    <row r="106" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B106" s="3" t="s">
+      <c r="F108" s="31"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="32"/>
+    </row>
+    <row r="109" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B109" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C106" s="33" t="s">
+      <c r="C109" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="D106" s="34"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="34"/>
-      <c r="I106" s="34"/>
-      <c r="J106" s="35"/>
-    </row>
-    <row r="107" spans="2:10">
-      <c r="B107" s="6" t="s">
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="35"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E110" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="F110" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G107" s="5" t="s">
+      <c r="G110" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H107" s="5" t="s">
+      <c r="H110" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I107" s="5" t="s">
+      <c r="I110" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J107" s="5" t="s">
+      <c r="J110" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="2:10">
-      <c r="B108" s="7" t="s">
+    <row r="111" spans="2:10">
+      <c r="B111" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C111" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D111" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E108" s="9">
+      <c r="E111" s="9">
         <v>20</v>
       </c>
-      <c r="F108" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G108" s="11" t="s">
+      <c r="F111" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G111" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H108" s="11" t="s">
+      <c r="H111" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I108" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J108" s="12" t="s">
+      <c r="I111" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J111" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="109" spans="2:10">
-      <c r="B109" s="7" t="s">
+    <row r="112" spans="2:10">
+      <c r="B112" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C112" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D112" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E109" s="9">
+      <c r="E112" s="9">
         <v>20</v>
       </c>
-      <c r="F109" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G109" s="11" t="s">
+      <c r="F112" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G112" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H109" s="11" t="s">
+      <c r="H112" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I109" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J109" s="12" t="s">
+      <c r="I112" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J112" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="2:10">
-      <c r="B110" s="7" t="s">
+    <row r="113" spans="2:10">
+      <c r="B113" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C113" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D113" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E110" s="9">
+      <c r="E113" s="9">
         <v>20</v>
       </c>
-      <c r="F110" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G110" s="11" t="s">
+      <c r="F113" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G113" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H110" s="11" t="s">
+      <c r="H113" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I110" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J110" s="12" t="s">
+      <c r="I113" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J113" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="111" spans="2:10">
-      <c r="B111" s="13" t="s">
+    <row r="114" spans="2:10">
+      <c r="B114" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C111" s="19" t="s">
+      <c r="C114" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D111" s="18" t="s">
+      <c r="D114" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E111" s="15">
+      <c r="E114" s="15">
         <v>500</v>
       </c>
-      <c r="F111" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G111" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H111" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I111" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J111" s="14" t="s">
+      <c r="F114" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G114" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H114" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I114" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J114" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="113" spans="2:10">
-      <c r="B113" s="3" t="s">
+    <row r="116" spans="2:10">
+      <c r="B116" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="4" t="str">
+      <c r="C116" s="4" t="str">
         <f>테이블목록!D15</f>
         <v>WISHLIST</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D116" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E113" s="30" t="str">
+      <c r="E116" s="30" t="str">
         <f>테이블목록!C15</f>
         <v>위시리스트</v>
       </c>
-      <c r="F113" s="31"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="32"/>
-    </row>
-    <row r="114" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B114" s="3" t="s">
+      <c r="F116" s="31"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="31"/>
+      <c r="I116" s="31"/>
+      <c r="J116" s="32"/>
+    </row>
+    <row r="117" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B117" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C114" s="33" t="s">
+      <c r="C117" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="34"/>
-      <c r="H114" s="34"/>
-      <c r="I114" s="34"/>
-      <c r="J114" s="35"/>
-    </row>
-    <row r="115" spans="2:10">
-      <c r="B115" s="6" t="s">
+      <c r="D117" s="34"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="34"/>
+      <c r="J117" s="35"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E118" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="F118" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G115" s="5" t="s">
+      <c r="G118" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H115" s="5" t="s">
+      <c r="H118" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I115" s="5" t="s">
+      <c r="I118" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J115" s="5" t="s">
+      <c r="J118" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="2:10">
-      <c r="B116" s="7" t="s">
+    <row r="119" spans="2:10">
+      <c r="B119" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C119" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D119" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E116" s="9"/>
-      <c r="F116" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G116" s="11" t="s">
+      <c r="E119" s="9"/>
+      <c r="F119" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G119" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H116" s="11" t="s">
+      <c r="H119" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I116" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J116" s="12" t="s">
+      <c r="I119" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J119" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="117" spans="2:10">
-      <c r="B117" s="7" t="s">
+    <row r="120" spans="2:10">
+      <c r="B120" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C120" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D120" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E117" s="9">
+      <c r="E120" s="9">
         <v>20</v>
       </c>
-      <c r="F117" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G117" s="11" t="s">
+      <c r="F120" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G120" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H117" s="11" t="s">
+      <c r="H120" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I117" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J117" s="12" t="s">
+      <c r="I120" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J120" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="119" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B119" s="3" t="s">
+    <row r="122" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B122" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C119" s="4" t="str">
+      <c r="C122" s="4" t="str">
         <f>테이블목록!D16</f>
         <v>PAY_CARD</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D122" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E119" s="30" t="str">
+      <c r="E122" s="30" t="str">
         <f>테이블목록!C16</f>
         <v>결제카드</v>
       </c>
-      <c r="F119" s="31"/>
-      <c r="G119" s="31"/>
-      <c r="H119" s="31"/>
-      <c r="I119" s="31"/>
-      <c r="J119" s="32"/>
-    </row>
-    <row r="120" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B120" s="3" t="s">
+      <c r="F122" s="31"/>
+      <c r="G122" s="31"/>
+      <c r="H122" s="31"/>
+      <c r="I122" s="31"/>
+      <c r="J122" s="32"/>
+    </row>
+    <row r="123" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B123" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C120" s="33" t="s">
+      <c r="C123" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="D120" s="34"/>
-      <c r="E120" s="34"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="34"/>
-      <c r="H120" s="34"/>
-      <c r="I120" s="34"/>
-      <c r="J120" s="35"/>
-    </row>
-    <row r="121" spans="2:10">
-      <c r="B121" s="6" t="s">
+      <c r="D123" s="34"/>
+      <c r="E123" s="34"/>
+      <c r="F123" s="34"/>
+      <c r="G123" s="34"/>
+      <c r="H123" s="34"/>
+      <c r="I123" s="34"/>
+      <c r="J123" s="35"/>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E121" s="5" t="s">
+      <c r="E124" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F121" s="5" t="s">
+      <c r="F124" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G121" s="5" t="s">
+      <c r="G124" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H121" s="5" t="s">
+      <c r="H124" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I121" s="5" t="s">
+      <c r="I124" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J121" s="5" t="s">
+      <c r="J124" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="2:10">
-      <c r="B122" s="7" t="s">
+    <row r="125" spans="2:10">
+      <c r="B125" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C125" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D125" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E122" s="9">
+      <c r="E125" s="9">
         <v>20</v>
       </c>
-      <c r="F122" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G122" s="11" t="s">
+      <c r="F125" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G125" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H122" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I122" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J122" s="12" t="s">
+      <c r="H125" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I125" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J125" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="123" spans="2:10">
-      <c r="B123" s="24" t="s">
+    <row r="126" spans="2:10">
+      <c r="B126" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="24" t="s">
+      <c r="C126" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D123" s="25" t="s">
+      <c r="D126" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E123" s="26">
+      <c r="E126" s="26">
         <v>20</v>
       </c>
-      <c r="F123" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G123" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H123" s="28" t="s">
+      <c r="F126" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G126" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H126" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I123" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J123" s="29" t="s">
+      <c r="I126" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J126" s="29" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="124" spans="2:10">
-      <c r="B124" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D124" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E124" s="15">
-        <v>50</v>
-      </c>
-      <c r="F124" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G124" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H124" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I124" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J124" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="125" spans="2:10">
-      <c r="B125" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D125" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E125" s="15">
-        <v>20</v>
-      </c>
-      <c r="F125" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G125" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H125" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I125" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J125" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="126" spans="2:10">
-      <c r="B126" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D126" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="E126" s="15"/>
-      <c r="F126" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G126" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H126" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I126" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J126" s="14" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="127" spans="2:10">
       <c r="B127" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E127" s="15">
+        <v>50</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G127" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H127" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I127" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J127" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E128" s="15">
+        <v>20</v>
+      </c>
+      <c r="F128" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G128" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H128" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I128" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J128" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E129" s="15"/>
+      <c r="F129" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G129" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H129" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I129" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J129" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="C130" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D127" s="18" t="s">
+      <c r="D130" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="E127" s="15"/>
-      <c r="F127" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G127" s="17" t="s">
+      <c r="E130" s="15"/>
+      <c r="F130" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G130" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="H127" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I127" s="17" t="s">
+      <c r="H130" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I130" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J127" s="14" t="s">
+      <c r="J130" s="14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="129" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B129" s="3" t="s">
+    <row r="132" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B132" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C129" s="4" t="str">
+      <c r="C132" s="4" t="str">
         <f>테이블목록!D17</f>
         <v>RECEIVE_ACCOUNT</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D132" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E129" s="30" t="str">
+      <c r="E132" s="30" t="str">
         <f>테이블목록!C17</f>
         <v>수령계좌</v>
       </c>
-      <c r="F129" s="31"/>
-      <c r="G129" s="31"/>
-      <c r="H129" s="31"/>
-      <c r="I129" s="31"/>
-      <c r="J129" s="32"/>
-    </row>
-    <row r="130" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B130" s="3" t="s">
+      <c r="F132" s="31"/>
+      <c r="G132" s="31"/>
+      <c r="H132" s="31"/>
+      <c r="I132" s="31"/>
+      <c r="J132" s="32"/>
+    </row>
+    <row r="133" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B133" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C130" s="33" t="s">
+      <c r="C133" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="D130" s="34"/>
-      <c r="E130" s="34"/>
-      <c r="F130" s="34"/>
-      <c r="G130" s="34"/>
-      <c r="H130" s="34"/>
-      <c r="I130" s="34"/>
-      <c r="J130" s="35"/>
-    </row>
-    <row r="131" spans="2:10">
-      <c r="B131" s="6" t="s">
+      <c r="D133" s="34"/>
+      <c r="E133" s="34"/>
+      <c r="F133" s="34"/>
+      <c r="G133" s="34"/>
+      <c r="H133" s="34"/>
+      <c r="I133" s="34"/>
+      <c r="J133" s="35"/>
+    </row>
+    <row r="134" spans="2:10">
+      <c r="B134" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D134" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E131" s="5" t="s">
+      <c r="E134" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F131" s="5" t="s">
+      <c r="F134" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G131" s="5" t="s">
+      <c r="G134" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H131" s="5" t="s">
+      <c r="H134" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I131" s="5" t="s">
+      <c r="I134" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J131" s="5" t="s">
+      <c r="J134" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="2:10">
-      <c r="B132" s="7" t="s">
+    <row r="135" spans="2:10">
+      <c r="B135" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C135" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D135" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E132" s="9">
+      <c r="E135" s="9">
         <v>50</v>
       </c>
-      <c r="F132" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G132" s="11" t="s">
+      <c r="F135" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G135" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H132" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I132" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J132" s="12" t="s">
+      <c r="H135" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I135" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J135" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="133" spans="2:10">
-      <c r="B133" s="24" t="s">
+    <row r="136" spans="2:10">
+      <c r="B136" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C133" s="24" t="s">
+      <c r="C136" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D133" s="25" t="s">
+      <c r="D136" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E133" s="26">
+      <c r="E136" s="26">
         <v>20</v>
       </c>
-      <c r="F133" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G133" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H133" s="28" t="s">
+      <c r="F136" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G136" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H136" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I133" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J133" s="29" t="s">
+      <c r="I136" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J136" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="134" spans="2:10">
-      <c r="B134" s="13" t="s">
+    <row r="137" spans="2:10">
+      <c r="B137" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C134" s="19" t="s">
+      <c r="C137" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D134" s="18" t="s">
+      <c r="D137" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E134" s="15">
+      <c r="E137" s="15">
         <v>20</v>
       </c>
-      <c r="F134" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G134" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H134" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I134" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J134" s="14" t="s">
+      <c r="F137" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G137" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H137" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I137" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J137" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="136" spans="2:10">
-      <c r="B136" s="3" t="s">
+    <row r="139" spans="2:10">
+      <c r="B139" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C136" s="4" t="str">
+      <c r="C139" s="4" t="str">
         <f>테이블목록!D18</f>
+        <v>MEMBER_LIKE</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E139" s="30" t="str">
+        <f>테이블목록!C18</f>
+        <v>멤버좋아요</v>
+      </c>
+      <c r="F139" s="31"/>
+      <c r="G139" s="31"/>
+      <c r="H139" s="31"/>
+      <c r="I139" s="31"/>
+      <c r="J139" s="32"/>
+    </row>
+    <row r="140" spans="2:10">
+      <c r="B140" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D140" s="34"/>
+      <c r="E140" s="34"/>
+      <c r="F140" s="34"/>
+      <c r="G140" s="34"/>
+      <c r="H140" s="34"/>
+      <c r="I140" s="34"/>
+      <c r="J140" s="35"/>
+    </row>
+    <row r="141" spans="2:10">
+      <c r="B141" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J141" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10">
+      <c r="B142" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E142" s="9">
+        <v>20</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I142" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J142" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10">
+      <c r="B143" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E143" s="9">
+        <v>20</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I143" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J143" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10">
+      <c r="B145" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145" s="4" t="str">
+        <f>테이블목록!D19</f>
         <v>COMMENT_LIKE</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D145" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E136" s="30" t="str">
-        <f>테이블목록!C18</f>
+      <c r="E145" s="30" t="str">
+        <f>테이블목록!C19</f>
         <v>게스트댓글좋아요</v>
       </c>
-      <c r="F136" s="31"/>
-      <c r="G136" s="31"/>
-      <c r="H136" s="31"/>
-      <c r="I136" s="31"/>
-      <c r="J136" s="32"/>
-    </row>
-    <row r="137" spans="2:10">
-      <c r="B137" s="3" t="s">
+      <c r="F145" s="31"/>
+      <c r="G145" s="31"/>
+      <c r="H145" s="31"/>
+      <c r="I145" s="31"/>
+      <c r="J145" s="32"/>
+    </row>
+    <row r="146" spans="2:10">
+      <c r="B146" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C137" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="D137" s="34"/>
-      <c r="E137" s="34"/>
-      <c r="F137" s="34"/>
-      <c r="G137" s="34"/>
-      <c r="H137" s="34"/>
-      <c r="I137" s="34"/>
-      <c r="J137" s="35"/>
-    </row>
-    <row r="138" spans="2:10">
-      <c r="B138" s="6" t="s">
+      <c r="C146" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="D146" s="34"/>
+      <c r="E146" s="34"/>
+      <c r="F146" s="34"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="34"/>
+      <c r="I146" s="34"/>
+      <c r="J146" s="35"/>
+    </row>
+    <row r="147" spans="2:10">
+      <c r="B147" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C147" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D147" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E138" s="5" t="s">
+      <c r="E147" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="F147" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G138" s="5" t="s">
+      <c r="G147" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H138" s="5" t="s">
+      <c r="H147" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I138" s="5" t="s">
+      <c r="I147" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J138" s="5" t="s">
+      <c r="J147" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="2:10">
-      <c r="B139" s="7" t="s">
+    <row r="148" spans="2:10">
+      <c r="B148" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C148" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D148" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E139" s="9">
+      <c r="E148" s="9">
         <v>20</v>
       </c>
-      <c r="F139" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G139" s="11" t="s">
+      <c r="F148" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G148" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H139" s="11" t="s">
+      <c r="H148" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I139" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J139" s="12" t="s">
+      <c r="I148" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J148" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="140" spans="2:10">
-      <c r="B140" s="7" t="s">
+    <row r="149" spans="2:10">
+      <c r="B149" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C149" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D149" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E140" s="9">
+      <c r="E149" s="9">
         <v>20</v>
       </c>
-      <c r="F140" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G140" s="11" t="s">
+      <c r="F149" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G149" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H140" s="11" t="s">
+      <c r="H149" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I140" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J140" s="12" t="s">
+      <c r="I149" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J149" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="141" spans="2:10">
-      <c r="B141" s="7" t="s">
+    <row r="150" spans="2:10">
+      <c r="B150" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C150" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D150" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E141" s="9">
+      <c r="E150" s="9">
         <v>20</v>
       </c>
-      <c r="F141" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G141" s="11" t="s">
+      <c r="F150" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G150" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H141" s="11" t="s">
+      <c r="H150" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I141" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J141" s="12" t="s">
+      <c r="I150" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J150" s="12" t="s">
         <v>220</v>
       </c>
     </row>
+    <row r="152" spans="2:10">
+      <c r="B152" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C152" s="4" t="str">
+        <f>테이블목록!D20</f>
+        <v>CHAT</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E152" s="30" t="str">
+        <f>테이블목록!C20</f>
+        <v>채팅</v>
+      </c>
+      <c r="F152" s="31"/>
+      <c r="G152" s="31"/>
+      <c r="H152" s="31"/>
+      <c r="I152" s="31"/>
+      <c r="J152" s="32"/>
+    </row>
+    <row r="153" spans="2:10">
+      <c r="B153" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="D153" s="34"/>
+      <c r="E153" s="34"/>
+      <c r="F153" s="34"/>
+      <c r="G153" s="34"/>
+      <c r="H153" s="34"/>
+      <c r="I153" s="34"/>
+      <c r="J153" s="35"/>
+    </row>
+    <row r="154" spans="2:10">
+      <c r="B154" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I154" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J154" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10">
+      <c r="B155" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E155" s="9"/>
+      <c r="F155" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I155" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J155" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10">
+      <c r="B156" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D156" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E156" s="20">
+        <v>20</v>
+      </c>
+      <c r="F156" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G156" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H156" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I156" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J156" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10">
+      <c r="B157" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C157" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D157" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E157" s="20">
+        <v>20</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G157" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H157" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I157" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J157" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10">
+      <c r="B158" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D158" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E158" s="20">
+        <v>5000</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G158" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H158" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I158" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J158" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10">
+      <c r="B159" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C159" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="E159" s="20"/>
+      <c r="F159" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G159" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H159" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I159" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J159" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="E136:J136"/>
-    <mergeCell ref="C137:J137"/>
+  <mergeCells count="36">
+    <mergeCell ref="E145:J145"/>
+    <mergeCell ref="C146:J146"/>
+    <mergeCell ref="C133:J133"/>
+    <mergeCell ref="C109:J109"/>
+    <mergeCell ref="E116:J116"/>
+    <mergeCell ref="C117:J117"/>
+    <mergeCell ref="E122:J122"/>
+    <mergeCell ref="C123:J123"/>
+    <mergeCell ref="E139:J139"/>
+    <mergeCell ref="C140:J140"/>
+    <mergeCell ref="E98:J98"/>
+    <mergeCell ref="C99:J99"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="E108:J108"/>
+    <mergeCell ref="E132:J132"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="E15:J15"/>
     <mergeCell ref="C16:J16"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="E83:J83"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="E89:J89"/>
-    <mergeCell ref="C90:J90"/>
-    <mergeCell ref="E95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="E105:J105"/>
-    <mergeCell ref="E129:J129"/>
-    <mergeCell ref="C130:J130"/>
-    <mergeCell ref="C106:J106"/>
-    <mergeCell ref="E113:J113"/>
-    <mergeCell ref="C114:J114"/>
-    <mergeCell ref="E119:J119"/>
-    <mergeCell ref="C120:J120"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E152:J152"/>
+    <mergeCell ref="C153:J153"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="E77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="E92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="E86:J86"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="C72:J72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G132:I134 G122:I127 G26:I38 G43:I45 G50:I52 G116:I117 G78:I81 G86:I87 G72:I73 G92:I93 G108:I111 G18:I21 G5:I13 G57:I67 G98:I103 G139:I141" xr:uid="{492BF38E-5496-4EF6-A922-FD81B9D26907}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G135:I137 G125:I130 G28:I40 G45:I47 G52:I54 G119:I120 G89:I90 G74:I75 G95:I96 G111:I114 G142:I143 G5:I13 G59:I69 G101:I106 G80:I84 G148:I150 G18:I23 G155:I159" xr:uid="{492BF38E-5496-4EF6-A922-FD81B9D26907}">
       <formula1>"O,X"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F132:F134 F122:F127 F26:F38 F43:F45 F50:F52 F116:F117 F78:F81 F86:F87 F72:F73 F92:F93 F108:F111 F18:F21 F5:F13 F57:F67 F98:F103 F139:F141" xr:uid="{AF8CC3C4-DFCA-412C-AEBD-8E350D2D1EDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F135:F137 F125:F130 F28:F40 F45:F47 F52:F54 F119:F120 F89:F90 F74:F75 F95:F96 F111:F114 F142:F143 F5:F13 F59:F69 F101:F106 F80:F84 F148:F150 F18:F23 F155:F159" xr:uid="{AF8CC3C4-DFCA-412C-AEBD-8E350D2D1EDE}">
       <formula1>"NULL, NOT NULL"</formula1>
     </dataValidation>
   </dataValidations>

--- a/문서/DB/STAY_테이블정의서.xlsx
+++ b/문서/DB/STAY_테이블정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansu7\OneDrive\바탕 화면\대학교\쌍용교육센터\4. 프로젝트\3. 파이널 프로젝트\1. 기능 및 테이블 설계\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208759D2-553C-4C19-878A-E8ABF02E5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B638728-5FC0-452B-B5DF-EBE3AFADB913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{540EC85E-E7E6-488D-BCE9-66EAB191C5FF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="255">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1032,6 +1032,22 @@
   </si>
   <si>
     <t>채팅내용을 저장하는 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPROVE_CHECK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불 진행 여부 (ING, OK, CAN)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1840,10 +1856,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32421AEE-0BEA-44D9-BB47-DC8293EAA7D3}">
-  <dimension ref="B2:J159"/>
+  <dimension ref="B2:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153:J153"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2412,169 +2428,169 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1"/>
-    <row r="25" spans="2:10">
-      <c r="B25" s="3" t="s">
+    <row r="24" spans="2:10">
+      <c r="B24" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="15">
+        <v>20</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="26" spans="2:10">
+      <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="4" t="str">
+      <c r="C26" s="4" t="str">
         <f>테이블목록!D5</f>
         <v>ROOM</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="30" t="str">
+      <c r="E26" s="30" t="str">
         <f>테이블목록!C5</f>
         <v>숙소</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="3" t="s">
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="32"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C27" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="6" t="s">
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="7" t="s">
+    <row r="29" spans="2:10">
+      <c r="B29" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="11" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" s="12" t="s">
+      <c r="H29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="13" t="s">
+    <row r="30" spans="2:10">
+      <c r="B30" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="15">
-        <v>20</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="20">
-        <v>50</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>80</v>
+      <c r="E30" s="15">
+        <v>20</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E31" s="20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F31" s="21" t="s">
         <v>38</v>
@@ -2589,15 +2605,15 @@
         <v>40</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>37</v>
@@ -2618,15 +2634,15 @@
         <v>40</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>37</v>
@@ -2647,21 +2663,21 @@
         <v>40</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E34" s="20">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F34" s="21" t="s">
         <v>38</v>
@@ -2676,20 +2692,22 @@
         <v>40</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="20"/>
+        <v>37</v>
+      </c>
+      <c r="E35" s="20">
+        <v>200</v>
+      </c>
       <c r="F35" s="21" t="s">
         <v>38</v>
       </c>
@@ -2703,22 +2721,20 @@
         <v>40</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="20">
-        <v>5000</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E36" s="20"/>
       <c r="F36" s="21" t="s">
         <v>38</v>
       </c>
@@ -2732,21 +2748,21 @@
         <v>40</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E37" s="20">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="F37" s="21" t="s">
         <v>38</v>
@@ -2761,24 +2777,24 @@
         <v>40</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E38" s="20">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>40</v>
@@ -2790,20 +2806,22 @@
         <v>40</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="20"/>
+        <v>37</v>
+      </c>
+      <c r="E39" s="20">
+        <v>1000</v>
+      </c>
       <c r="F39" s="21" t="s">
         <v>100</v>
       </c>
@@ -2817,22 +2835,20 @@
         <v>40</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="20">
-        <v>1</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E40" s="20"/>
       <c r="F40" s="21" t="s">
         <v>100</v>
       </c>
@@ -2843,470 +2859,472 @@
         <v>40</v>
       </c>
       <c r="I40" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="20">
+        <v>1</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="J41" s="23" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="20.100000000000001" customHeight="1"/>
-    <row r="42" spans="2:10">
-      <c r="B42" s="3" t="s">
+    <row r="42" spans="2:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="43" spans="2:10">
+      <c r="B43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="4" t="str">
+      <c r="C43" s="4" t="str">
         <f>테이블목록!D6</f>
         <v>ROOM_PRICE</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="30" t="str">
+      <c r="E43" s="30" t="str">
         <f>테이블목록!C6</f>
         <v>숙소변경가격</v>
       </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="3" t="s">
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C44" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="35"/>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="6" t="s">
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J45" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="7" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G46" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="I46" s="11" t="s">
         <v>40</v>
       </c>
       <c r="J46" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J47" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="19" t="s">
+    <row r="48" spans="2:10">
+      <c r="B48" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C48" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D48" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I47" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J47" s="23" t="s">
+      <c r="E48" s="20"/>
+      <c r="F48" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J48" s="23" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="3" t="s">
+    <row r="50" spans="2:10">
+      <c r="B50" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="4" t="str">
+      <c r="C50" s="4" t="str">
         <f>테이블목록!D7</f>
         <v>ROOM_HOSTING</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E49" s="30" t="str">
+      <c r="E50" s="30" t="str">
         <f>테이블목록!C7</f>
         <v>숙소변경호스팅</v>
       </c>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="32"/>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="3" t="s">
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="32"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C51" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="35"/>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="6" t="s">
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="35"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G52" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H52" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I52" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="J52" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="53" spans="2:10">
       <c r="B53" s="7" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G53" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H53" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="I53" s="11" t="s">
         <v>40</v>
       </c>
       <c r="J53" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="19" t="s">
+    <row r="55" spans="2:10">
+      <c r="B55" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C55" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D55" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E55" s="20">
         <v>1</v>
       </c>
-      <c r="F54" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H54" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I54" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J54" s="23" t="s">
+      <c r="F55" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J55" s="23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="3" t="s">
+    <row r="57" spans="2:10">
+      <c r="B57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="4" t="str">
+      <c r="C57" s="4" t="str">
         <f>테이블목록!D8</f>
         <v>RESERVATION</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="30" t="str">
+      <c r="E57" s="30" t="str">
         <f>테이블목록!C8</f>
         <v>예약</v>
       </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="3" t="s">
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C58" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="35"/>
-    </row>
-    <row r="58" spans="2:10">
-      <c r="B58" s="6" t="s">
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="35"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F59" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G59" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H59" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I59" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J58" s="5" t="s">
+      <c r="J59" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="7" t="s">
+    <row r="60" spans="2:10">
+      <c r="B60" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D60" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E60" s="9">
         <v>20</v>
       </c>
-      <c r="F59" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G59" s="11" t="s">
+      <c r="F60" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H59" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J59" s="12" t="s">
+      <c r="H60" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J60" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="24" t="s">
+    <row r="61" spans="2:10">
+      <c r="B61" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C61" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D61" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E60" s="26">
+      <c r="E61" s="26">
         <v>20</v>
       </c>
-      <c r="F60" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G60" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H60" s="28" t="s">
+      <c r="F61" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I60" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J60" s="29" t="s">
+      <c r="I61" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J61" s="29" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="15">
-        <v>20</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I61" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J61" s="14" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="62" spans="2:10">
       <c r="B62" s="13" t="s">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E62" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="E62" s="15">
+        <v>20</v>
+      </c>
       <c r="F62" s="16" t="s">
         <v>38</v>
       </c>
@@ -3320,18 +3338,18 @@
         <v>40</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" s="13" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="E63" s="15"/>
       <c r="F63" s="16" t="s">
@@ -3341,21 +3359,21 @@
         <v>40</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="I63" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>117</v>
@@ -3374,18 +3392,18 @@
         <v>40</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="13" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="16" t="s">
@@ -3401,22 +3419,20 @@
         <v>40</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="13" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E66" s="15">
-        <v>30</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E66" s="15"/>
       <c r="F66" s="16" t="s">
         <v>38</v>
       </c>
@@ -3430,50 +3446,50 @@
         <v>40</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E67" s="15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="13" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E68" s="15">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F68" s="16" t="s">
         <v>142</v>
@@ -3488,141 +3504,141 @@
         <v>143</v>
       </c>
       <c r="J68" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="15">
+        <v>50</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I69" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J69" s="14" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="2:10">
-      <c r="B69" s="19" t="s">
+    <row r="70" spans="2:10">
+      <c r="B70" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C70" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D70" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="E69" s="20"/>
-      <c r="F69" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I69" s="17" t="s">
+      <c r="E70" s="20"/>
+      <c r="F70" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I70" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J69" s="23" t="s">
+      <c r="J70" s="23" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="2:10">
-      <c r="B71" s="3" t="s">
+    <row r="72" spans="2:10">
+      <c r="B72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C71" s="4" t="str">
+      <c r="C72" s="4" t="str">
         <f>테이블목록!D9</f>
         <v>RECEIPT</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="30" t="str">
+      <c r="E72" s="30" t="str">
         <f>테이블목록!C9</f>
         <v>예약영수증</v>
       </c>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="32"/>
-    </row>
-    <row r="72" spans="2:10">
-      <c r="B72" s="3" t="s">
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="32"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C73" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="35"/>
-    </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="6" t="s">
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="35"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F74" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G74" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H74" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I74" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J73" s="5" t="s">
+      <c r="J74" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10">
-      <c r="B74" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J74" s="12" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" s="7" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="9">
-        <v>20</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E75" s="9"/>
       <c r="F75" s="10" t="s">
         <v>38</v>
       </c>
@@ -3630,324 +3646,324 @@
         <v>39</v>
       </c>
       <c r="H75" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="9">
+        <v>20</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H76" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I75" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J75" s="12" t="s">
+      <c r="I76" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J76" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="2:10">
-      <c r="B77" s="3" t="s">
+    <row r="78" spans="2:10">
+      <c r="B78" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C77" s="4" t="str">
+      <c r="C78" s="4" t="str">
         <f>테이블목록!D10</f>
         <v>CAN_RESERVATION</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E77" s="30" t="str">
+      <c r="E78" s="30" t="str">
         <f>테이블목록!C10</f>
         <v>예약취소</v>
       </c>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="32"/>
-    </row>
-    <row r="78" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B78" s="3" t="s">
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
+    </row>
+    <row r="79" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B79" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C79" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="35"/>
-    </row>
-    <row r="79" spans="2:10">
-      <c r="B79" s="6" t="s">
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="35"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F80" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G80" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="H80" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I79" s="5" t="s">
+      <c r="I80" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J79" s="5" t="s">
+      <c r="J80" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="2:10">
-      <c r="B80" s="7" t="s">
+    <row r="81" spans="2:10">
+      <c r="B81" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D81" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E81" s="9">
         <v>20</v>
       </c>
-      <c r="F80" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G80" s="11" t="s">
+      <c r="F81" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H80" s="11" t="s">
+      <c r="H81" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I80" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J80" s="12" t="s">
+      <c r="I81" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J81" s="12" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10">
-      <c r="B81" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E81" s="15"/>
-      <c r="F81" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G81" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H81" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I81" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="J81" s="14" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="82" spans="2:10">
       <c r="B82" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="16" t="s">
         <v>38</v>
       </c>
       <c r="G82" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I82" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J82" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" s="15"/>
+      <c r="F83" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="H82" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I82" s="17" t="s">
+      <c r="H83" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I83" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="J82" s="14" t="s">
+      <c r="J83" s="14" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10">
-      <c r="B83" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E83" s="20">
-        <v>20</v>
-      </c>
-      <c r="F83" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G83" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H83" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I83" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="J83" s="23" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="84" spans="2:10">
       <c r="B84" s="19" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>155</v>
       </c>
       <c r="D84" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" s="20">
+        <v>20</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I84" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J84" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D85" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="E84" s="20"/>
-      <c r="F84" s="16" t="s">
+      <c r="E85" s="20"/>
+      <c r="F85" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G84" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H84" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I84" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J84" s="23" t="s">
+      <c r="G85" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I85" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J85" s="23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="86" spans="2:10">
-      <c r="B86" s="3" t="s">
+    <row r="87" spans="2:10">
+      <c r="B87" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C86" s="4" t="str">
+      <c r="C87" s="4" t="str">
         <f>테이블목록!D11</f>
         <v>CAN_RECEIPT</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E86" s="30" t="str">
+      <c r="E87" s="30" t="str">
         <f>테이블목록!C11</f>
         <v>예약취소영수증</v>
       </c>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="32"/>
-    </row>
-    <row r="87" spans="2:10">
-      <c r="B87" s="3" t="s">
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C87" s="33" t="s">
+      <c r="C88" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="35"/>
-    </row>
-    <row r="88" spans="2:10">
-      <c r="B88" s="6" t="s">
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="35"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E89" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F89" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G89" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H88" s="5" t="s">
+      <c r="H89" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I88" s="5" t="s">
+      <c r="I89" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J88" s="5" t="s">
+      <c r="J89" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10">
-      <c r="B89" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E89" s="9"/>
-      <c r="F89" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J89" s="12" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="90" spans="2:10">
       <c r="B90" s="7" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E90" s="9">
-        <v>20</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E90" s="9"/>
       <c r="F90" s="10" t="s">
         <v>38</v>
       </c>
@@ -3961,119 +3977,119 @@
         <v>40</v>
       </c>
       <c r="J90" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="92" spans="2:10">
-      <c r="B92" s="3" t="s">
+      <c r="D91" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="9">
+        <v>20</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C92" s="4" t="str">
+      <c r="C93" s="4" t="str">
         <f>테이블목록!D12</f>
         <v>JOIN_GUEST</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E92" s="30" t="str">
+      <c r="E93" s="30" t="str">
         <f>테이블목록!C12</f>
         <v>공동게스트</v>
       </c>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
-    </row>
-    <row r="93" spans="2:10">
-      <c r="B93" s="3" t="s">
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="32"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="33" t="s">
+      <c r="C94" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="35"/>
-    </row>
-    <row r="94" spans="2:10">
-      <c r="B94" s="6" t="s">
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="35"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E95" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F95" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="G95" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="H95" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I94" s="5" t="s">
+      <c r="I95" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J94" s="5" t="s">
+      <c r="J95" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10">
-      <c r="B95" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H95" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J95" s="12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="96" spans="2:10">
       <c r="B96" s="7" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E96" s="9">
-        <v>20</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E96" s="9"/>
       <c r="F96" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H96" s="11" t="s">
         <v>72</v>
@@ -4082,109 +4098,109 @@
         <v>40</v>
       </c>
       <c r="J96" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" s="9">
+        <v>20</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I97" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J97" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="2:10">
-      <c r="B98" s="3" t="s">
+    <row r="99" spans="2:10">
+      <c r="B99" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C98" s="4" t="str">
+      <c r="C99" s="4" t="str">
         <f>테이블목록!D13</f>
         <v>GUEST_COMMENT</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E98" s="30" t="str">
+      <c r="E99" s="30" t="str">
         <f>테이블목록!C13</f>
         <v>게스트댓글</v>
       </c>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="32"/>
-    </row>
-    <row r="99" spans="2:10">
-      <c r="B99" s="3" t="s">
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31"/>
+      <c r="I99" s="31"/>
+      <c r="J99" s="32"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C99" s="33" t="s">
+      <c r="C100" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="34"/>
-      <c r="J99" s="35"/>
-    </row>
-    <row r="100" spans="2:10">
-      <c r="B100" s="6" t="s">
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="35"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E101" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F101" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="G101" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="H101" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I100" s="5" t="s">
+      <c r="I101" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J100" s="5" t="s">
+      <c r="J101" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10">
-      <c r="B101" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E101" s="9">
-        <v>20</v>
-      </c>
-      <c r="F101" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H101" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J101" s="12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="102" spans="2:10">
       <c r="B102" s="7" t="s">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>37</v>
@@ -4196,7 +4212,7 @@
         <v>38</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H102" s="11" t="s">
         <v>72</v>
@@ -4205,49 +4221,51 @@
         <v>40</v>
       </c>
       <c r="J102" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E103" s="9">
+        <v>20</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J103" s="12" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10">
-      <c r="B103" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D103" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E103" s="15">
-        <v>500</v>
-      </c>
-      <c r="F103" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G103" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H103" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I103" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J103" s="14" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="104" spans="2:10">
       <c r="B104" s="13" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="E104" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="E104" s="15">
+        <v>500</v>
+      </c>
       <c r="F104" s="16" t="s">
         <v>38</v>
       </c>
@@ -4261,45 +4279,45 @@
         <v>40</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="2:10">
       <c r="B105" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="E105" s="15"/>
       <c r="F105" s="16" t="s">
         <v>38</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="H105" s="17" t="s">
         <v>40</v>
       </c>
       <c r="I105" s="17" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="2:10">
       <c r="B106" s="13" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="E106" s="15"/>
       <c r="F106" s="16" t="s">
@@ -4315,109 +4333,107 @@
         <v>72</v>
       </c>
       <c r="J106" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E107" s="15"/>
+      <c r="F107" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H107" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I107" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J107" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="108" spans="2:10">
-      <c r="B108" s="3" t="s">
+    <row r="109" spans="2:10">
+      <c r="B109" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C108" s="4" t="str">
+      <c r="C109" s="4" t="str">
         <f>테이블목록!D14</f>
         <v>HOST_COMMENT</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E108" s="30" t="str">
+      <c r="E109" s="30" t="str">
         <f>테이블목록!C14</f>
         <v>호스트답글</v>
       </c>
-      <c r="F108" s="31"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="32"/>
-    </row>
-    <row r="109" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B109" s="3" t="s">
+      <c r="F109" s="31"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="31"/>
+      <c r="I109" s="31"/>
+      <c r="J109" s="32"/>
+    </row>
+    <row r="110" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B110" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C109" s="33" t="s">
+      <c r="C110" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="34"/>
-      <c r="I109" s="34"/>
-      <c r="J109" s="35"/>
-    </row>
-    <row r="110" spans="2:10">
-      <c r="B110" s="6" t="s">
+      <c r="D110" s="34"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="34"/>
+      <c r="I110" s="34"/>
+      <c r="J110" s="35"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D111" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E111" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="F111" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G110" s="5" t="s">
+      <c r="G111" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H110" s="5" t="s">
+      <c r="H111" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I110" s="5" t="s">
+      <c r="I111" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J110" s="5" t="s">
+      <c r="J111" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10">
-      <c r="B111" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E111" s="9">
-        <v>20</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H111" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I111" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J111" s="12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="112" spans="2:10">
       <c r="B112" s="7" t="s">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>37</v>
@@ -4429,7 +4445,7 @@
         <v>38</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H112" s="11" t="s">
         <v>72</v>
@@ -4438,15 +4454,15 @@
         <v>40</v>
       </c>
       <c r="J112" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="2:10">
       <c r="B113" s="7" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>37</v>
@@ -4467,148 +4483,148 @@
         <v>40</v>
       </c>
       <c r="J113" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E114" s="9">
+        <v>20</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J114" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="2:10">
-      <c r="B114" s="13" t="s">
+    <row r="115" spans="2:10">
+      <c r="B115" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C114" s="19" t="s">
+      <c r="C115" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D114" s="18" t="s">
+      <c r="D115" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E114" s="15">
+      <c r="E115" s="15">
         <v>500</v>
       </c>
-      <c r="F114" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G114" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H114" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I114" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J114" s="14" t="s">
+      <c r="F115" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G115" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H115" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I115" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J115" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="116" spans="2:10">
-      <c r="B116" s="3" t="s">
+    <row r="117" spans="2:10">
+      <c r="B117" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C116" s="4" t="str">
+      <c r="C117" s="4" t="str">
         <f>테이블목록!D15</f>
         <v>WISHLIST</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E116" s="30" t="str">
+      <c r="E117" s="30" t="str">
         <f>테이블목록!C15</f>
         <v>위시리스트</v>
       </c>
-      <c r="F116" s="31"/>
-      <c r="G116" s="31"/>
-      <c r="H116" s="31"/>
-      <c r="I116" s="31"/>
-      <c r="J116" s="32"/>
-    </row>
-    <row r="117" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B117" s="3" t="s">
+      <c r="F117" s="31"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="31"/>
+      <c r="J117" s="32"/>
+    </row>
+    <row r="118" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B118" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C117" s="33" t="s">
+      <c r="C118" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="D117" s="34"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="34"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="34"/>
-      <c r="J117" s="35"/>
-    </row>
-    <row r="118" spans="2:10">
-      <c r="B118" s="6" t="s">
+      <c r="D118" s="34"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="34"/>
+      <c r="I118" s="34"/>
+      <c r="J118" s="35"/>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D119" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E119" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="F119" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G118" s="5" t="s">
+      <c r="G119" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H118" s="5" t="s">
+      <c r="H119" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I118" s="5" t="s">
+      <c r="I119" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J118" s="5" t="s">
+      <c r="J119" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10">
-      <c r="B119" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E119" s="9"/>
-      <c r="F119" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H119" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I119" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J119" s="12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="120" spans="2:10">
       <c r="B120" s="7" t="s">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E120" s="9">
-        <v>20</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E120" s="9"/>
       <c r="F120" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H120" s="11" t="s">
         <v>72</v>
@@ -4617,173 +4633,173 @@
         <v>40</v>
       </c>
       <c r="J120" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" s="9">
+        <v>20</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J121" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B122" s="3" t="s">
+    <row r="123" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B123" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C122" s="4" t="str">
+      <c r="C123" s="4" t="str">
         <f>테이블목록!D16</f>
         <v>PAY_CARD</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D123" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E122" s="30" t="str">
+      <c r="E123" s="30" t="str">
         <f>테이블목록!C16</f>
         <v>결제카드</v>
       </c>
-      <c r="F122" s="31"/>
-      <c r="G122" s="31"/>
-      <c r="H122" s="31"/>
-      <c r="I122" s="31"/>
-      <c r="J122" s="32"/>
-    </row>
-    <row r="123" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B123" s="3" t="s">
+      <c r="F123" s="31"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="31"/>
+      <c r="I123" s="31"/>
+      <c r="J123" s="32"/>
+    </row>
+    <row r="124" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B124" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C123" s="33" t="s">
+      <c r="C124" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="D123" s="34"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="34"/>
-      <c r="G123" s="34"/>
-      <c r="H123" s="34"/>
-      <c r="I123" s="34"/>
-      <c r="J123" s="35"/>
-    </row>
-    <row r="124" spans="2:10">
-      <c r="B124" s="6" t="s">
+      <c r="D124" s="34"/>
+      <c r="E124" s="34"/>
+      <c r="F124" s="34"/>
+      <c r="G124" s="34"/>
+      <c r="H124" s="34"/>
+      <c r="I124" s="34"/>
+      <c r="J124" s="35"/>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E125" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F124" s="5" t="s">
+      <c r="F125" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G124" s="5" t="s">
+      <c r="G125" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H124" s="5" t="s">
+      <c r="H125" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I124" s="5" t="s">
+      <c r="I125" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J124" s="5" t="s">
+      <c r="J125" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="2:10">
-      <c r="B125" s="7" t="s">
+    <row r="126" spans="2:10">
+      <c r="B126" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C126" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D126" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E125" s="9">
+      <c r="E126" s="9">
         <v>20</v>
       </c>
-      <c r="F125" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G125" s="11" t="s">
+      <c r="F126" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G126" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H125" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I125" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J125" s="12" t="s">
+      <c r="H126" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I126" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J126" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="126" spans="2:10">
-      <c r="B126" s="24" t="s">
+    <row r="127" spans="2:10">
+      <c r="B127" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C126" s="24" t="s">
+      <c r="C127" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D126" s="25" t="s">
+      <c r="D127" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E126" s="26">
+      <c r="E127" s="26">
         <v>20</v>
       </c>
-      <c r="F126" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G126" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H126" s="28" t="s">
+      <c r="F127" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G127" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H127" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I126" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J126" s="29" t="s">
+      <c r="I127" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J127" s="29" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10">
-      <c r="B127" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D127" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E127" s="15">
-        <v>50</v>
-      </c>
-      <c r="F127" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G127" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H127" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I127" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J127" s="14" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="128" spans="2:10">
       <c r="B128" s="13" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D128" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E128" s="15">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F128" s="16" t="s">
         <v>38</v>
@@ -4798,20 +4814,22 @@
         <v>40</v>
       </c>
       <c r="J128" s="14" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="2:10">
       <c r="B129" s="13" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="E129" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="E129" s="15">
+        <v>20</v>
+      </c>
       <c r="F129" s="16" t="s">
         <v>38</v>
       </c>
@@ -4825,15 +4843,15 @@
         <v>40</v>
       </c>
       <c r="J129" s="14" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="130" spans="2:10">
       <c r="B130" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C130" s="13" t="s">
-        <v>197</v>
+        <v>183</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="D130" s="18" t="s">
         <v>201</v>
@@ -4843,270 +4861,268 @@
         <v>38</v>
       </c>
       <c r="G130" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H130" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I130" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J130" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E131" s="15"/>
+      <c r="F131" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G131" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="H130" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I130" s="17" t="s">
+      <c r="H131" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I131" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J130" s="14" t="s">
+      <c r="J131" s="14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="132" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B132" s="3" t="s">
+    <row r="133" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B133" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C132" s="4" t="str">
+      <c r="C133" s="4" t="str">
         <f>테이블목록!D17</f>
         <v>RECEIVE_ACCOUNT</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D133" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E132" s="30" t="str">
+      <c r="E133" s="30" t="str">
         <f>테이블목록!C17</f>
         <v>수령계좌</v>
       </c>
-      <c r="F132" s="31"/>
-      <c r="G132" s="31"/>
-      <c r="H132" s="31"/>
-      <c r="I132" s="31"/>
-      <c r="J132" s="32"/>
-    </row>
-    <row r="133" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B133" s="3" t="s">
+      <c r="F133" s="31"/>
+      <c r="G133" s="31"/>
+      <c r="H133" s="31"/>
+      <c r="I133" s="31"/>
+      <c r="J133" s="32"/>
+    </row>
+    <row r="134" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B134" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C133" s="33" t="s">
+      <c r="C134" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="D133" s="34"/>
-      <c r="E133" s="34"/>
-      <c r="F133" s="34"/>
-      <c r="G133" s="34"/>
-      <c r="H133" s="34"/>
-      <c r="I133" s="34"/>
-      <c r="J133" s="35"/>
-    </row>
-    <row r="134" spans="2:10">
-      <c r="B134" s="6" t="s">
+      <c r="D134" s="34"/>
+      <c r="E134" s="34"/>
+      <c r="F134" s="34"/>
+      <c r="G134" s="34"/>
+      <c r="H134" s="34"/>
+      <c r="I134" s="34"/>
+      <c r="J134" s="35"/>
+    </row>
+    <row r="135" spans="2:10">
+      <c r="B135" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C135" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D135" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E134" s="5" t="s">
+      <c r="E135" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F134" s="5" t="s">
+      <c r="F135" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G134" s="5" t="s">
+      <c r="G135" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H134" s="5" t="s">
+      <c r="H135" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I134" s="5" t="s">
+      <c r="I135" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J134" s="5" t="s">
+      <c r="J135" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="2:10">
-      <c r="B135" s="7" t="s">
+    <row r="136" spans="2:10">
+      <c r="B136" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C136" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D136" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E135" s="9">
+      <c r="E136" s="9">
         <v>50</v>
       </c>
-      <c r="F135" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G135" s="11" t="s">
+      <c r="F136" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G136" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H135" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I135" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J135" s="12" t="s">
+      <c r="H136" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I136" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J136" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="136" spans="2:10">
-      <c r="B136" s="24" t="s">
+    <row r="137" spans="2:10">
+      <c r="B137" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C136" s="24" t="s">
+      <c r="C137" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D136" s="25" t="s">
+      <c r="D137" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E136" s="26">
+      <c r="E137" s="26">
         <v>20</v>
       </c>
-      <c r="F136" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G136" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H136" s="28" t="s">
+      <c r="F137" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G137" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H137" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I136" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J136" s="29" t="s">
+      <c r="I137" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J137" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="137" spans="2:10">
-      <c r="B137" s="13" t="s">
+    <row r="138" spans="2:10">
+      <c r="B138" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C137" s="19" t="s">
+      <c r="C138" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D137" s="18" t="s">
+      <c r="D138" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E137" s="15">
+      <c r="E138" s="15">
         <v>20</v>
       </c>
-      <c r="F137" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G137" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H137" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I137" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J137" s="14" t="s">
+      <c r="F138" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G138" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H138" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I138" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J138" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="139" spans="2:10">
-      <c r="B139" s="3" t="s">
+    <row r="140" spans="2:10">
+      <c r="B140" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C139" s="4" t="str">
+      <c r="C140" s="4" t="str">
         <f>테이블목록!D18</f>
         <v>MEMBER_LIKE</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D140" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E139" s="30" t="str">
+      <c r="E140" s="30" t="str">
         <f>테이블목록!C18</f>
         <v>멤버좋아요</v>
       </c>
-      <c r="F139" s="31"/>
-      <c r="G139" s="31"/>
-      <c r="H139" s="31"/>
-      <c r="I139" s="31"/>
-      <c r="J139" s="32"/>
-    </row>
-    <row r="140" spans="2:10">
-      <c r="B140" s="3" t="s">
+      <c r="F140" s="31"/>
+      <c r="G140" s="31"/>
+      <c r="H140" s="31"/>
+      <c r="I140" s="31"/>
+      <c r="J140" s="32"/>
+    </row>
+    <row r="141" spans="2:10">
+      <c r="B141" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C140" s="33" t="s">
+      <c r="C141" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="D140" s="34"/>
-      <c r="E140" s="34"/>
-      <c r="F140" s="34"/>
-      <c r="G140" s="34"/>
-      <c r="H140" s="34"/>
-      <c r="I140" s="34"/>
-      <c r="J140" s="35"/>
-    </row>
-    <row r="141" spans="2:10">
-      <c r="B141" s="6" t="s">
+      <c r="D141" s="34"/>
+      <c r="E141" s="34"/>
+      <c r="F141" s="34"/>
+      <c r="G141" s="34"/>
+      <c r="H141" s="34"/>
+      <c r="I141" s="34"/>
+      <c r="J141" s="35"/>
+    </row>
+    <row r="142" spans="2:10">
+      <c r="B142" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C142" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D142" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="E142" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F141" s="5" t="s">
+      <c r="F142" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G141" s="5" t="s">
+      <c r="G142" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H141" s="5" t="s">
+      <c r="H142" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I141" s="5" t="s">
+      <c r="I142" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J141" s="5" t="s">
+      <c r="J142" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="142" spans="2:10">
-      <c r="B142" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E142" s="9">
-        <v>20</v>
-      </c>
-      <c r="F142" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G142" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H142" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I142" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J142" s="12" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="143" spans="2:10">
       <c r="B143" s="7" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>37</v>
@@ -5127,109 +5143,109 @@
         <v>40</v>
       </c>
       <c r="J143" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10">
+      <c r="B144" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E144" s="9">
+        <v>20</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H144" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I144" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J144" s="12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="145" spans="2:10">
-      <c r="B145" s="3" t="s">
+    <row r="146" spans="2:10">
+      <c r="B146" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C145" s="4" t="str">
+      <c r="C146" s="4" t="str">
         <f>테이블목록!D19</f>
         <v>COMMENT_LIKE</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D146" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E145" s="30" t="str">
+      <c r="E146" s="30" t="str">
         <f>테이블목록!C19</f>
         <v>게스트댓글좋아요</v>
       </c>
-      <c r="F145" s="31"/>
-      <c r="G145" s="31"/>
-      <c r="H145" s="31"/>
-      <c r="I145" s="31"/>
-      <c r="J145" s="32"/>
-    </row>
-    <row r="146" spans="2:10">
-      <c r="B146" s="3" t="s">
+      <c r="F146" s="31"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="31"/>
+      <c r="I146" s="31"/>
+      <c r="J146" s="32"/>
+    </row>
+    <row r="147" spans="2:10">
+      <c r="B147" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C146" s="33" t="s">
+      <c r="C147" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="D146" s="34"/>
-      <c r="E146" s="34"/>
-      <c r="F146" s="34"/>
-      <c r="G146" s="34"/>
-      <c r="H146" s="34"/>
-      <c r="I146" s="34"/>
-      <c r="J146" s="35"/>
-    </row>
-    <row r="147" spans="2:10">
-      <c r="B147" s="6" t="s">
+      <c r="D147" s="34"/>
+      <c r="E147" s="34"/>
+      <c r="F147" s="34"/>
+      <c r="G147" s="34"/>
+      <c r="H147" s="34"/>
+      <c r="I147" s="34"/>
+      <c r="J147" s="35"/>
+    </row>
+    <row r="148" spans="2:10">
+      <c r="B148" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C148" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D148" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E147" s="5" t="s">
+      <c r="E148" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F147" s="5" t="s">
+      <c r="F148" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G147" s="5" t="s">
+      <c r="G148" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H147" s="5" t="s">
+      <c r="H148" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I147" s="5" t="s">
+      <c r="I148" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J147" s="5" t="s">
+      <c r="J148" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="148" spans="2:10">
-      <c r="B148" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E148" s="9">
-        <v>20</v>
-      </c>
-      <c r="F148" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G148" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H148" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I148" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J148" s="12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="149" spans="2:10">
       <c r="B149" s="7" t="s">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>37</v>
@@ -5241,7 +5257,7 @@
         <v>38</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H149" s="11" t="s">
         <v>72</v>
@@ -5250,15 +5266,15 @@
         <v>40</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="150" spans="2:10">
       <c r="B150" s="7" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>37</v>
@@ -5279,136 +5295,136 @@
         <v>40</v>
       </c>
       <c r="J150" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10">
+      <c r="B151" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E151" s="9">
+        <v>20</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H151" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I151" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J151" s="12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="152" spans="2:10">
-      <c r="B152" s="3" t="s">
+    <row r="153" spans="2:10">
+      <c r="B153" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C152" s="4" t="str">
+      <c r="C153" s="4" t="str">
         <f>테이블목록!D20</f>
         <v>CHAT</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D153" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E152" s="30" t="str">
+      <c r="E153" s="30" t="str">
         <f>테이블목록!C20</f>
         <v>채팅</v>
       </c>
-      <c r="F152" s="31"/>
-      <c r="G152" s="31"/>
-      <c r="H152" s="31"/>
-      <c r="I152" s="31"/>
-      <c r="J152" s="32"/>
-    </row>
-    <row r="153" spans="2:10">
-      <c r="B153" s="3" t="s">
+      <c r="F153" s="31"/>
+      <c r="G153" s="31"/>
+      <c r="H153" s="31"/>
+      <c r="I153" s="31"/>
+      <c r="J153" s="32"/>
+    </row>
+    <row r="154" spans="2:10">
+      <c r="B154" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C153" s="33" t="s">
+      <c r="C154" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="D153" s="34"/>
-      <c r="E153" s="34"/>
-      <c r="F153" s="34"/>
-      <c r="G153" s="34"/>
-      <c r="H153" s="34"/>
-      <c r="I153" s="34"/>
-      <c r="J153" s="35"/>
-    </row>
-    <row r="154" spans="2:10">
-      <c r="B154" s="6" t="s">
+      <c r="D154" s="34"/>
+      <c r="E154" s="34"/>
+      <c r="F154" s="34"/>
+      <c r="G154" s="34"/>
+      <c r="H154" s="34"/>
+      <c r="I154" s="34"/>
+      <c r="J154" s="35"/>
+    </row>
+    <row r="155" spans="2:10">
+      <c r="B155" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C155" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D155" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E154" s="5" t="s">
+      <c r="E155" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F154" s="5" t="s">
+      <c r="F155" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G154" s="5" t="s">
+      <c r="G155" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H154" s="5" t="s">
+      <c r="H155" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I154" s="5" t="s">
+      <c r="I155" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J154" s="5" t="s">
+      <c r="J155" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="2:10">
-      <c r="B155" s="7" t="s">
+    <row r="156" spans="2:10">
+      <c r="B156" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C156" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="D156" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E155" s="9"/>
-      <c r="F155" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G155" s="11" t="s">
+      <c r="E156" s="9"/>
+      <c r="F156" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G156" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H155" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I155" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J155" s="12" t="s">
+      <c r="H156" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I156" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J156" s="12" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="156" spans="2:10">
-      <c r="B156" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="D156" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E156" s="20">
-        <v>20</v>
-      </c>
-      <c r="F156" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G156" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H156" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I156" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J156" s="23" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="157" spans="2:10">
       <c r="B157" s="19" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D157" s="18" t="s">
         <v>37</v>
@@ -5429,21 +5445,21 @@
         <v>40</v>
       </c>
       <c r="J157" s="23" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="158" spans="2:10">
       <c r="B158" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D158" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E158" s="20">
-        <v>5000</v>
+        <v>20</v>
       </c>
       <c r="F158" s="10" t="s">
         <v>38</v>
@@ -5452,87 +5468,116 @@
         <v>40</v>
       </c>
       <c r="H158" s="22" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="I158" s="22" t="s">
         <v>40</v>
       </c>
       <c r="J158" s="23" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="159" spans="2:10">
       <c r="B159" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C159" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E159" s="20">
+        <v>5000</v>
+      </c>
+      <c r="F159" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G159" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H159" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I159" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J159" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10">
+      <c r="B160" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="C159" s="19" t="s">
+      <c r="C160" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="D159" s="18" t="s">
+      <c r="D160" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E159" s="20"/>
-      <c r="F159" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G159" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H159" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I159" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J159" s="23" t="s">
+      <c r="E160" s="20"/>
+      <c r="F160" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G160" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H160" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I160" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J160" s="23" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E145:J145"/>
-    <mergeCell ref="C146:J146"/>
-    <mergeCell ref="C133:J133"/>
-    <mergeCell ref="C109:J109"/>
-    <mergeCell ref="E116:J116"/>
-    <mergeCell ref="C117:J117"/>
-    <mergeCell ref="E122:J122"/>
-    <mergeCell ref="C123:J123"/>
-    <mergeCell ref="E139:J139"/>
-    <mergeCell ref="C140:J140"/>
-    <mergeCell ref="E98:J98"/>
-    <mergeCell ref="C99:J99"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="E108:J108"/>
-    <mergeCell ref="E132:J132"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="E153:J153"/>
+    <mergeCell ref="C154:J154"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="E93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="E87:J87"/>
+    <mergeCell ref="E72:J72"/>
+    <mergeCell ref="C73:J73"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="E15:J15"/>
     <mergeCell ref="C16:J16"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E152:J152"/>
-    <mergeCell ref="C153:J153"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="E77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="E92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="E86:J86"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E99:J99"/>
+    <mergeCell ref="C100:J100"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="E109:J109"/>
+    <mergeCell ref="E133:J133"/>
+    <mergeCell ref="E146:J146"/>
+    <mergeCell ref="C147:J147"/>
+    <mergeCell ref="C134:J134"/>
+    <mergeCell ref="C110:J110"/>
+    <mergeCell ref="E117:J117"/>
+    <mergeCell ref="C118:J118"/>
+    <mergeCell ref="E123:J123"/>
+    <mergeCell ref="C124:J124"/>
+    <mergeCell ref="E140:J140"/>
+    <mergeCell ref="C141:J141"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G135:I137 G125:I130 G28:I40 G45:I47 G52:I54 G119:I120 G89:I90 G74:I75 G95:I96 G111:I114 G142:I143 G5:I13 G59:I69 G101:I106 G80:I84 G148:I150 G18:I23 G155:I159" xr:uid="{492BF38E-5496-4EF6-A922-FD81B9D26907}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G136:I138 G126:I131 G29:I41 G46:I48 G53:I55 G120:I121 G90:I91 G75:I76 G96:I97 G112:I115 G143:I144 G5:I13 G60:I70 G102:I107 G81:I85 G149:I151 G156:I160 G18:I24" xr:uid="{492BF38E-5496-4EF6-A922-FD81B9D26907}">
       <formula1>"O,X"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F135:F137 F125:F130 F28:F40 F45:F47 F52:F54 F119:F120 F89:F90 F74:F75 F95:F96 F111:F114 F142:F143 F5:F13 F59:F69 F101:F106 F80:F84 F148:F150 F18:F23 F155:F159" xr:uid="{AF8CC3C4-DFCA-412C-AEBD-8E350D2D1EDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F136:F138 F126:F131 F29:F41 F46:F48 F53:F55 F120:F121 F90:F91 F75:F76 F96:F97 F112:F115 F143:F144 F5:F13 F60:F70 F102:F107 F81:F85 F149:F151 F156:F160 F18:F24" xr:uid="{AF8CC3C4-DFCA-412C-AEBD-8E350D2D1EDE}">
       <formula1>"NULL, NOT NULL"</formula1>
     </dataValidation>
   </dataValidations>

--- a/문서/DB/STAY_테이블정의서.xlsx
+++ b/문서/DB/STAY_테이블정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansu7\OneDrive\바탕 화면\대학교\쌍용교육센터\4. 프로젝트\3. 파이널 프로젝트\1. 기능 및 테이블 설계\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B638728-5FC0-452B-B5DF-EBE3AFADB913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A7BCE6-866A-4EE8-BFC4-CBF1B9757B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{540EC85E-E7E6-488D-BCE9-66EAB191C5FF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="256">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1048,6 +1048,10 @@
   </si>
   <si>
     <t>환불 진행 여부 (ING, OK, CAN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호스트 댓글 작성한 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1856,10 +1860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32421AEE-0BEA-44D9-BB47-DC8293EAA7D3}">
-  <dimension ref="B2:J160"/>
+  <dimension ref="B2:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18:N19"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4526,7 +4530,7 @@
         <v>37</v>
       </c>
       <c r="E115" s="15">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F115" s="16" t="s">
         <v>38</v>
@@ -4544,116 +4548,114 @@
         <v>178</v>
       </c>
     </row>
-    <row r="117" spans="2:10">
-      <c r="B117" s="3" t="s">
+    <row r="116" spans="2:10">
+      <c r="B116" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E116" s="15"/>
+      <c r="F116" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G116" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H116" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I116" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J116" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C117" s="4" t="str">
+      <c r="C118" s="4" t="str">
         <f>테이블목록!D15</f>
         <v>WISHLIST</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E117" s="30" t="str">
+      <c r="E118" s="30" t="str">
         <f>테이블목록!C15</f>
         <v>위시리스트</v>
       </c>
-      <c r="F117" s="31"/>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="31"/>
-      <c r="J117" s="32"/>
-    </row>
-    <row r="118" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B118" s="3" t="s">
+      <c r="F118" s="31"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="31"/>
+      <c r="J118" s="32"/>
+    </row>
+    <row r="119" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B119" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C118" s="33" t="s">
+      <c r="C119" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="34"/>
-      <c r="G118" s="34"/>
-      <c r="H118" s="34"/>
-      <c r="I118" s="34"/>
-      <c r="J118" s="35"/>
-    </row>
-    <row r="119" spans="2:10">
-      <c r="B119" s="6" t="s">
+      <c r="D119" s="34"/>
+      <c r="E119" s="34"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="34"/>
+      <c r="H119" s="34"/>
+      <c r="I119" s="34"/>
+      <c r="J119" s="35"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D120" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E120" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="F120" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G119" s="5" t="s">
+      <c r="G120" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H119" s="5" t="s">
+      <c r="H120" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I119" s="5" t="s">
+      <c r="I120" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J119" s="5" t="s">
+      <c r="J120" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10">
-      <c r="B120" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E120" s="9"/>
-      <c r="F120" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H120" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I120" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J120" s="12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="121" spans="2:10">
       <c r="B121" s="7" t="s">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E121" s="9">
-        <v>20</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E121" s="9"/>
       <c r="F121" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H121" s="11" t="s">
         <v>72</v>
@@ -4662,173 +4664,173 @@
         <v>40</v>
       </c>
       <c r="J121" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122" s="9">
+        <v>20</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I122" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J122" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="123" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B123" s="3" t="s">
+    <row r="124" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B124" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C123" s="4" t="str">
+      <c r="C124" s="4" t="str">
         <f>테이블목록!D16</f>
         <v>PAY_CARD</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E123" s="30" t="str">
+      <c r="E124" s="30" t="str">
         <f>테이블목록!C16</f>
         <v>결제카드</v>
       </c>
-      <c r="F123" s="31"/>
-      <c r="G123" s="31"/>
-      <c r="H123" s="31"/>
-      <c r="I123" s="31"/>
-      <c r="J123" s="32"/>
-    </row>
-    <row r="124" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B124" s="3" t="s">
+      <c r="F124" s="31"/>
+      <c r="G124" s="31"/>
+      <c r="H124" s="31"/>
+      <c r="I124" s="31"/>
+      <c r="J124" s="32"/>
+    </row>
+    <row r="125" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B125" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C124" s="33" t="s">
+      <c r="C125" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="D124" s="34"/>
-      <c r="E124" s="34"/>
-      <c r="F124" s="34"/>
-      <c r="G124" s="34"/>
-      <c r="H124" s="34"/>
-      <c r="I124" s="34"/>
-      <c r="J124" s="35"/>
-    </row>
-    <row r="125" spans="2:10">
-      <c r="B125" s="6" t="s">
+      <c r="D125" s="34"/>
+      <c r="E125" s="34"/>
+      <c r="F125" s="34"/>
+      <c r="G125" s="34"/>
+      <c r="H125" s="34"/>
+      <c r="I125" s="34"/>
+      <c r="J125" s="35"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D126" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E125" s="5" t="s">
+      <c r="E126" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F125" s="5" t="s">
+      <c r="F126" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G125" s="5" t="s">
+      <c r="G126" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H125" s="5" t="s">
+      <c r="H126" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I125" s="5" t="s">
+      <c r="I126" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J125" s="5" t="s">
+      <c r="J126" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="2:10">
-      <c r="B126" s="7" t="s">
+    <row r="127" spans="2:10">
+      <c r="B127" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C127" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D127" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E126" s="9">
+      <c r="E127" s="9">
         <v>20</v>
       </c>
-      <c r="F126" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G126" s="11" t="s">
+      <c r="F127" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G127" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H126" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I126" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J126" s="12" t="s">
+      <c r="H127" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I127" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J127" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="127" spans="2:10">
-      <c r="B127" s="24" t="s">
+    <row r="128" spans="2:10">
+      <c r="B128" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C127" s="24" t="s">
+      <c r="C128" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D127" s="25" t="s">
+      <c r="D128" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E127" s="26">
+      <c r="E128" s="26">
         <v>20</v>
       </c>
-      <c r="F127" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G127" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H127" s="28" t="s">
+      <c r="F128" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G128" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H128" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I127" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J127" s="29" t="s">
+      <c r="I128" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J128" s="29" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="128" spans="2:10">
-      <c r="B128" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D128" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E128" s="15">
-        <v>50</v>
-      </c>
-      <c r="F128" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G128" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H128" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I128" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J128" s="14" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="129" spans="2:10">
       <c r="B129" s="13" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E129" s="15">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F129" s="16" t="s">
         <v>38</v>
@@ -4843,20 +4845,22 @@
         <v>40</v>
       </c>
       <c r="J129" s="14" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130" spans="2:10">
       <c r="B130" s="13" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="E130" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="E130" s="15">
+        <v>20</v>
+      </c>
       <c r="F130" s="16" t="s">
         <v>38</v>
       </c>
@@ -4870,15 +4874,15 @@
         <v>40</v>
       </c>
       <c r="J130" s="14" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="2:10">
       <c r="B131" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>197</v>
+        <v>183</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>201</v>
@@ -4888,270 +4892,268 @@
         <v>38</v>
       </c>
       <c r="G131" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H131" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I131" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J131" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E132" s="15"/>
+      <c r="F132" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G132" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="H131" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I131" s="17" t="s">
+      <c r="H132" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I132" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J131" s="14" t="s">
+      <c r="J132" s="14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="133" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B133" s="3" t="s">
+    <row r="134" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B134" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C133" s="4" t="str">
+      <c r="C134" s="4" t="str">
         <f>테이블목록!D17</f>
         <v>RECEIVE_ACCOUNT</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D134" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E133" s="30" t="str">
+      <c r="E134" s="30" t="str">
         <f>테이블목록!C17</f>
         <v>수령계좌</v>
       </c>
-      <c r="F133" s="31"/>
-      <c r="G133" s="31"/>
-      <c r="H133" s="31"/>
-      <c r="I133" s="31"/>
-      <c r="J133" s="32"/>
-    </row>
-    <row r="134" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B134" s="3" t="s">
+      <c r="F134" s="31"/>
+      <c r="G134" s="31"/>
+      <c r="H134" s="31"/>
+      <c r="I134" s="31"/>
+      <c r="J134" s="32"/>
+    </row>
+    <row r="135" spans="2:10" ht="17.399999999999999" customHeight="1">
+      <c r="B135" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C134" s="33" t="s">
+      <c r="C135" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="D134" s="34"/>
-      <c r="E134" s="34"/>
-      <c r="F134" s="34"/>
-      <c r="G134" s="34"/>
-      <c r="H134" s="34"/>
-      <c r="I134" s="34"/>
-      <c r="J134" s="35"/>
-    </row>
-    <row r="135" spans="2:10">
-      <c r="B135" s="6" t="s">
+      <c r="D135" s="34"/>
+      <c r="E135" s="34"/>
+      <c r="F135" s="34"/>
+      <c r="G135" s="34"/>
+      <c r="H135" s="34"/>
+      <c r="I135" s="34"/>
+      <c r="J135" s="35"/>
+    </row>
+    <row r="136" spans="2:10">
+      <c r="B136" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C136" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D136" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="E136" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F135" s="5" t="s">
+      <c r="F136" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G135" s="5" t="s">
+      <c r="G136" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H135" s="5" t="s">
+      <c r="H136" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I135" s="5" t="s">
+      <c r="I136" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J135" s="5" t="s">
+      <c r="J136" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="2:10">
-      <c r="B136" s="7" t="s">
+    <row r="137" spans="2:10">
+      <c r="B137" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C137" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D137" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E136" s="9">
+      <c r="E137" s="9">
         <v>50</v>
       </c>
-      <c r="F136" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G136" s="11" t="s">
+      <c r="F137" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G137" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H136" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I136" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J136" s="12" t="s">
+      <c r="H137" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I137" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J137" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="137" spans="2:10">
-      <c r="B137" s="24" t="s">
+    <row r="138" spans="2:10">
+      <c r="B138" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C137" s="24" t="s">
+      <c r="C138" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D137" s="25" t="s">
+      <c r="D138" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E137" s="26">
+      <c r="E138" s="26">
         <v>20</v>
       </c>
-      <c r="F137" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G137" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H137" s="28" t="s">
+      <c r="F138" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G138" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H138" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I137" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J137" s="29" t="s">
+      <c r="I138" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J138" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="138" spans="2:10">
-      <c r="B138" s="13" t="s">
+    <row r="139" spans="2:10">
+      <c r="B139" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C138" s="19" t="s">
+      <c r="C139" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D138" s="18" t="s">
+      <c r="D139" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E138" s="15">
+      <c r="E139" s="15">
         <v>20</v>
       </c>
-      <c r="F138" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G138" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H138" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I138" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J138" s="14" t="s">
+      <c r="F139" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G139" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H139" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I139" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J139" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="140" spans="2:10">
-      <c r="B140" s="3" t="s">
+    <row r="141" spans="2:10">
+      <c r="B141" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C140" s="4" t="str">
+      <c r="C141" s="4" t="str">
         <f>테이블목록!D18</f>
         <v>MEMBER_LIKE</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D141" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E140" s="30" t="str">
+      <c r="E141" s="30" t="str">
         <f>테이블목록!C18</f>
         <v>멤버좋아요</v>
       </c>
-      <c r="F140" s="31"/>
-      <c r="G140" s="31"/>
-      <c r="H140" s="31"/>
-      <c r="I140" s="31"/>
-      <c r="J140" s="32"/>
-    </row>
-    <row r="141" spans="2:10">
-      <c r="B141" s="3" t="s">
+      <c r="F141" s="31"/>
+      <c r="G141" s="31"/>
+      <c r="H141" s="31"/>
+      <c r="I141" s="31"/>
+      <c r="J141" s="32"/>
+    </row>
+    <row r="142" spans="2:10">
+      <c r="B142" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C141" s="33" t="s">
+      <c r="C142" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="D141" s="34"/>
-      <c r="E141" s="34"/>
-      <c r="F141" s="34"/>
-      <c r="G141" s="34"/>
-      <c r="H141" s="34"/>
-      <c r="I141" s="34"/>
-      <c r="J141" s="35"/>
-    </row>
-    <row r="142" spans="2:10">
-      <c r="B142" s="6" t="s">
+      <c r="D142" s="34"/>
+      <c r="E142" s="34"/>
+      <c r="F142" s="34"/>
+      <c r="G142" s="34"/>
+      <c r="H142" s="34"/>
+      <c r="I142" s="34"/>
+      <c r="J142" s="35"/>
+    </row>
+    <row r="143" spans="2:10">
+      <c r="B143" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D143" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E142" s="5" t="s">
+      <c r="E143" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="F143" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G142" s="5" t="s">
+      <c r="G143" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H142" s="5" t="s">
+      <c r="H143" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I142" s="5" t="s">
+      <c r="I143" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J142" s="5" t="s">
+      <c r="J143" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10">
-      <c r="B143" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E143" s="9">
-        <v>20</v>
-      </c>
-      <c r="F143" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G143" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H143" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I143" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J143" s="12" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="144" spans="2:10">
       <c r="B144" s="7" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>37</v>
@@ -5172,109 +5174,109 @@
         <v>40</v>
       </c>
       <c r="J144" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10">
+      <c r="B145" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E145" s="9">
+        <v>20</v>
+      </c>
+      <c r="F145" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H145" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I145" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J145" s="12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="146" spans="2:10">
-      <c r="B146" s="3" t="s">
+    <row r="147" spans="2:10">
+      <c r="B147" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C146" s="4" t="str">
+      <c r="C147" s="4" t="str">
         <f>테이블목록!D19</f>
         <v>COMMENT_LIKE</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D147" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E146" s="30" t="str">
+      <c r="E147" s="30" t="str">
         <f>테이블목록!C19</f>
         <v>게스트댓글좋아요</v>
       </c>
-      <c r="F146" s="31"/>
-      <c r="G146" s="31"/>
-      <c r="H146" s="31"/>
-      <c r="I146" s="31"/>
-      <c r="J146" s="32"/>
-    </row>
-    <row r="147" spans="2:10">
-      <c r="B147" s="3" t="s">
+      <c r="F147" s="31"/>
+      <c r="G147" s="31"/>
+      <c r="H147" s="31"/>
+      <c r="I147" s="31"/>
+      <c r="J147" s="32"/>
+    </row>
+    <row r="148" spans="2:10">
+      <c r="B148" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C147" s="33" t="s">
+      <c r="C148" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="D147" s="34"/>
-      <c r="E147" s="34"/>
-      <c r="F147" s="34"/>
-      <c r="G147" s="34"/>
-      <c r="H147" s="34"/>
-      <c r="I147" s="34"/>
-      <c r="J147" s="35"/>
-    </row>
-    <row r="148" spans="2:10">
-      <c r="B148" s="6" t="s">
+      <c r="D148" s="34"/>
+      <c r="E148" s="34"/>
+      <c r="F148" s="34"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="34"/>
+      <c r="I148" s="34"/>
+      <c r="J148" s="35"/>
+    </row>
+    <row r="149" spans="2:10">
+      <c r="B149" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C149" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D149" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E148" s="5" t="s">
+      <c r="E149" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F148" s="5" t="s">
+      <c r="F149" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G148" s="5" t="s">
+      <c r="G149" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H148" s="5" t="s">
+      <c r="H149" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I148" s="5" t="s">
+      <c r="I149" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J148" s="5" t="s">
+      <c r="J149" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="149" spans="2:10">
-      <c r="B149" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E149" s="9">
-        <v>20</v>
-      </c>
-      <c r="F149" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G149" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H149" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I149" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J149" s="12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="150" spans="2:10">
       <c r="B150" s="7" t="s">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>37</v>
@@ -5286,7 +5288,7 @@
         <v>38</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H150" s="11" t="s">
         <v>72</v>
@@ -5295,15 +5297,15 @@
         <v>40</v>
       </c>
       <c r="J150" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="151" spans="2:10">
       <c r="B151" s="7" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>37</v>
@@ -5324,136 +5326,136 @@
         <v>40</v>
       </c>
       <c r="J151" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10">
+      <c r="B152" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E152" s="9">
+        <v>20</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I152" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J152" s="12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="153" spans="2:10">
-      <c r="B153" s="3" t="s">
+    <row r="154" spans="2:10">
+      <c r="B154" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C153" s="4" t="str">
+      <c r="C154" s="4" t="str">
         <f>테이블목록!D20</f>
         <v>CHAT</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D154" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E153" s="30" t="str">
+      <c r="E154" s="30" t="str">
         <f>테이블목록!C20</f>
         <v>채팅</v>
       </c>
-      <c r="F153" s="31"/>
-      <c r="G153" s="31"/>
-      <c r="H153" s="31"/>
-      <c r="I153" s="31"/>
-      <c r="J153" s="32"/>
-    </row>
-    <row r="154" spans="2:10">
-      <c r="B154" s="3" t="s">
+      <c r="F154" s="31"/>
+      <c r="G154" s="31"/>
+      <c r="H154" s="31"/>
+      <c r="I154" s="31"/>
+      <c r="J154" s="32"/>
+    </row>
+    <row r="155" spans="2:10">
+      <c r="B155" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C154" s="33" t="s">
+      <c r="C155" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="D154" s="34"/>
-      <c r="E154" s="34"/>
-      <c r="F154" s="34"/>
-      <c r="G154" s="34"/>
-      <c r="H154" s="34"/>
-      <c r="I154" s="34"/>
-      <c r="J154" s="35"/>
-    </row>
-    <row r="155" spans="2:10">
-      <c r="B155" s="6" t="s">
+      <c r="D155" s="34"/>
+      <c r="E155" s="34"/>
+      <c r="F155" s="34"/>
+      <c r="G155" s="34"/>
+      <c r="H155" s="34"/>
+      <c r="I155" s="34"/>
+      <c r="J155" s="35"/>
+    </row>
+    <row r="156" spans="2:10">
+      <c r="B156" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C156" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D156" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E155" s="5" t="s">
+      <c r="E156" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F155" s="5" t="s">
+      <c r="F156" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G155" s="5" t="s">
+      <c r="G156" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H155" s="5" t="s">
+      <c r="H156" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I155" s="5" t="s">
+      <c r="I156" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J155" s="5" t="s">
+      <c r="J156" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="156" spans="2:10">
-      <c r="B156" s="7" t="s">
+    <row r="157" spans="2:10">
+      <c r="B157" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C157" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D156" s="8" t="s">
+      <c r="D157" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E156" s="9"/>
-      <c r="F156" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G156" s="11" t="s">
+      <c r="E157" s="9"/>
+      <c r="F157" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G157" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H156" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I156" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J156" s="12" t="s">
+      <c r="H157" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I157" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J157" s="12" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="157" spans="2:10">
-      <c r="B157" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C157" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="D157" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E157" s="20">
-        <v>20</v>
-      </c>
-      <c r="F157" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G157" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H157" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I157" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J157" s="23" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="158" spans="2:10">
       <c r="B158" s="19" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D158" s="18" t="s">
         <v>37</v>
@@ -5474,21 +5476,21 @@
         <v>40</v>
       </c>
       <c r="J158" s="23" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="159" spans="2:10">
       <c r="B159" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D159" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E159" s="20">
-        <v>5000</v>
+        <v>20</v>
       </c>
       <c r="F159" s="10" t="s">
         <v>38</v>
@@ -5497,47 +5499,96 @@
         <v>40</v>
       </c>
       <c r="H159" s="22" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="I159" s="22" t="s">
         <v>40</v>
       </c>
       <c r="J159" s="23" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="160" spans="2:10">
       <c r="B160" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C160" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E160" s="20">
+        <v>5000</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G160" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H160" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I160" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J160" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10">
+      <c r="B161" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="C160" s="19" t="s">
+      <c r="C161" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="D160" s="18" t="s">
+      <c r="D161" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E160" s="20"/>
-      <c r="F160" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G160" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H160" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I160" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J160" s="23" t="s">
+      <c r="E161" s="20"/>
+      <c r="F161" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G161" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H161" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I161" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J161" s="23" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E147:J147"/>
+    <mergeCell ref="C148:J148"/>
+    <mergeCell ref="C135:J135"/>
+    <mergeCell ref="C110:J110"/>
+    <mergeCell ref="E118:J118"/>
+    <mergeCell ref="C119:J119"/>
+    <mergeCell ref="E124:J124"/>
+    <mergeCell ref="C125:J125"/>
+    <mergeCell ref="E141:J141"/>
+    <mergeCell ref="C142:J142"/>
+    <mergeCell ref="E99:J99"/>
+    <mergeCell ref="C100:J100"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="E109:J109"/>
+    <mergeCell ref="E134:J134"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="E26:J26"/>
     <mergeCell ref="E57:J57"/>
-    <mergeCell ref="E153:J153"/>
-    <mergeCell ref="C154:J154"/>
+    <mergeCell ref="E154:J154"/>
+    <mergeCell ref="C155:J155"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="E43:J43"/>
     <mergeCell ref="C44:J44"/>
@@ -5551,33 +5602,13 @@
     <mergeCell ref="E87:J87"/>
     <mergeCell ref="E72:J72"/>
     <mergeCell ref="C73:J73"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E99:J99"/>
-    <mergeCell ref="C100:J100"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="E109:J109"/>
-    <mergeCell ref="E133:J133"/>
-    <mergeCell ref="E146:J146"/>
-    <mergeCell ref="C147:J147"/>
-    <mergeCell ref="C134:J134"/>
-    <mergeCell ref="C110:J110"/>
-    <mergeCell ref="E117:J117"/>
-    <mergeCell ref="C118:J118"/>
-    <mergeCell ref="E123:J123"/>
-    <mergeCell ref="C124:J124"/>
-    <mergeCell ref="E140:J140"/>
-    <mergeCell ref="C141:J141"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G136:I138 G126:I131 G29:I41 G46:I48 G53:I55 G120:I121 G90:I91 G75:I76 G96:I97 G112:I115 G143:I144 G5:I13 G60:I70 G102:I107 G81:I85 G149:I151 G156:I160 G18:I24" xr:uid="{492BF38E-5496-4EF6-A922-FD81B9D26907}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G137:I139 G127:I132 G29:I41 G46:I48 G53:I55 G121:I122 G90:I91 G75:I76 G96:I97 G18:I24 G144:I145 G5:I13 G60:I70 G102:I107 G81:I85 G150:I152 G157:I161 G112:I116" xr:uid="{492BF38E-5496-4EF6-A922-FD81B9D26907}">
       <formula1>"O,X"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F136:F138 F126:F131 F29:F41 F46:F48 F53:F55 F120:F121 F90:F91 F75:F76 F96:F97 F112:F115 F143:F144 F5:F13 F60:F70 F102:F107 F81:F85 F149:F151 F156:F160 F18:F24" xr:uid="{AF8CC3C4-DFCA-412C-AEBD-8E350D2D1EDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F137:F139 F127:F132 F29:F41 F46:F48 F53:F55 F121:F122 F90:F91 F75:F76 F96:F97 F18:F24 F144:F145 F5:F13 F60:F70 F102:F107 F81:F85 F150:F152 F157:F161 F112:F116" xr:uid="{AF8CC3C4-DFCA-412C-AEBD-8E350D2D1EDE}">
       <formula1>"NULL, NOT NULL"</formula1>
     </dataValidation>
   </dataValidations>
